--- a/dataset_excel/dentro_rotonda_train.xlsx
+++ b/dataset_excel/dentro_rotonda_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>giro izquierda</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -3726,14 +3726,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.03341642022132874</v>
+        <v>-0.009294554591178894</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I66" t="b">
@@ -3743,31 +3743,31 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L66" t="n">
-        <v>-10.48390483856201</v>
+        <v>-8.104494094848633</v>
       </c>
       <c r="M66" t="n">
-        <v>-24.61585807800293</v>
+        <v>-30.26421737670898</v>
       </c>
       <c r="N66" t="n">
-        <v>0.001601123716682196</v>
+        <v>0.001868266961537302</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>acelero</t>
+          <t>intermitente derecha</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>T-ON</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -3776,14 +3776,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7463088035583496</v>
+        <v>0.05754026025533676</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I67" t="b">
@@ -3793,47 +3793,47 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="L67" t="n">
-        <v>-12.42118263244629</v>
+        <v>-9.203333854675293</v>
       </c>
       <c r="M67" t="n">
-        <v>-18.62558746337891</v>
+        <v>-26.05705070495605</v>
       </c>
       <c r="N67" t="n">
-        <v>0.001362209324724972</v>
+        <v>0.001798190991394222</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.04029076173901558</v>
+        <v>-0.4601629376411438</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I68" t="b">
@@ -3843,31 +3843,31 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="L68" t="n">
-        <v>-16.76838302612305</v>
+        <v>-20.06027984619141</v>
       </c>
       <c r="M68" t="n">
-        <v>-9.434930801391602</v>
+        <v>-12.46189308166504</v>
       </c>
       <c r="N68" t="n">
-        <v>0.001363811432383955</v>
+        <v>0.001723728142678738</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>intermitente derecha</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5680026412010193</v>
+        <v>0.1694657355546951</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -3893,31 +3893,31 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="L69" t="n">
-        <v>-13.72001266479492</v>
+        <v>-7.378941535949707</v>
       </c>
       <c r="M69" t="n">
-        <v>12.87589931488037</v>
+        <v>-32.11928558349609</v>
       </c>
       <c r="N69" t="n">
-        <v>0.002149677136912942</v>
+        <v>0.001213169074617326</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>intermitente izquierda</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>LB-ON</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F70" t="n">
-        <v>0.800000011920929</v>
+        <v>0.3455844521522522</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -3943,47 +3943,47 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="L70" t="n">
-        <v>-6.653746604919434</v>
+        <v>-7.595675468444824</v>
       </c>
       <c r="M70" t="n">
-        <v>17.73668098449707</v>
+        <v>-28.97849273681641</v>
       </c>
       <c r="N70" t="n">
-        <v>0.001948413788340986</v>
+        <v>0.001494770054705441</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>salgo rotonda</t>
+          <t>giro izquierda</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RND-EXIT</t>
+          <t>TURN-L</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.1605124622583389</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2969964742660522</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I71" t="b">
@@ -3993,47 +3993,47 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L71" t="n">
-        <v>1.439836859703064</v>
+        <v>-14.58862018585205</v>
       </c>
       <c r="M71" t="n">
-        <v>19.02077484130859</v>
+        <v>-16.81591606140137</v>
       </c>
       <c r="N71" t="n">
-        <v>0.001812877599149942</v>
+        <v>0.001739101368002594</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>pongo intermitente izquierda</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>LB-ON</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F72" t="n">
-        <v>0.03639263287186623</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I72" t="b">
@@ -4043,31 +4043,31 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="L72" t="n">
-        <v>-12.01088714599609</v>
+        <v>-21.41915702819824</v>
       </c>
       <c r="M72" t="n">
-        <v>-18.64371490478516</v>
+        <v>-4.920458316802979</v>
       </c>
       <c r="N72" t="n">
-        <v>0.002090396825224161</v>
+        <v>0.001849193475209177</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>giro izquierda</t>
+          <t>intermitente derecha</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -4076,14 +4076,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7700908184051514</v>
+        <v>-0.2171227037906647</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I73" t="b">
@@ -4093,47 +4093,47 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="L73" t="n">
-        <v>-13.68394374847412</v>
+        <v>-18.05343818664551</v>
       </c>
       <c r="M73" t="n">
-        <v>-16.17480278015137</v>
+        <v>10.28012752532959</v>
       </c>
       <c r="N73" t="n">
-        <v>0.002055225428193808</v>
+        <v>0.001997852232307196</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>mantengo acelerador</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>T-HOLD</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4849154055118561</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.3875010311603546</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I74" t="b">
@@ -4143,47 +4143,47 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L74" t="n">
-        <v>-17.47516441345215</v>
+        <v>-13.66816520690918</v>
       </c>
       <c r="M74" t="n">
-        <v>-10.13842105865479</v>
+        <v>16.12824821472168</v>
       </c>
       <c r="N74" t="n">
-        <v>0.001791515271179378</v>
+        <v>0.00210821139626205</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>mantengo acelerador</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>T-HOLD</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5735567212104797</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1046696156263351</v>
+        <v>-0.800000011920929</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I75" t="b">
@@ -4193,31 +4193,31 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="L75" t="n">
-        <v>-17.62931632995605</v>
+        <v>-12.22142887115479</v>
       </c>
       <c r="M75" t="n">
-        <v>8.653385162353516</v>
+        <v>18.30045890808105</v>
       </c>
       <c r="N75" t="n">
-        <v>0.001738223945721984</v>
+        <v>0.002185687888413668</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -4226,14 +4226,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F76" t="n">
-        <v>0.800000011920929</v>
+        <v>0.1957182884216309</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I76" t="b">
@@ -4243,40 +4243,40 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="L76" t="n">
-        <v>-7.969676494598389</v>
+        <v>-8.736855506896973</v>
       </c>
       <c r="M76" t="n">
-        <v>18.79161071777344</v>
+        <v>-26.95649147033691</v>
       </c>
       <c r="N76" t="n">
-        <v>0.001881313277408481</v>
+        <v>0.00177679059561342</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>pongo intermitente derecha</t>
+          <t>intermitente izquierda</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>LB-ON</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.7402968406677246</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.03155277669429779</v>
+        <v>0.2084176689386368</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -4293,31 +4293,31 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="L77" t="n">
-        <v>3.20716118812561</v>
+        <v>-9.998876571655273</v>
       </c>
       <c r="M77" t="n">
-        <v>19.79253005981445</v>
+        <v>-22.80402755737305</v>
       </c>
       <c r="N77" t="n">
-        <v>0.00184911722317338</v>
+        <v>0.001573772402480245</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>giro izquierda rotonda</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>TURN-L</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -4326,14 +4326,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.08788592368364334</v>
+        <v>0.4620414674282074</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I78" t="b">
@@ -4343,31 +4343,31 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L78" t="n">
-        <v>11.73307514190674</v>
+        <v>-15.39384651184082</v>
       </c>
       <c r="M78" t="n">
-        <v>15.4570951461792</v>
+        <v>-15.26520729064941</v>
       </c>
       <c r="N78" t="n">
-        <v>0.001840839395299554</v>
+        <v>0.001621837611310184</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>salgo rotonda</t>
+          <t>mantengo acelerador</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>RND-EXIT</t>
+          <t>T-HOLD</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -4376,14 +4376,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2232709527015686</v>
+        <v>0.368315726518631</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I79" t="b">
@@ -4393,47 +4393,47 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L79" t="n">
-        <v>16.40233421325684</v>
+        <v>-20.95921325683594</v>
       </c>
       <c r="M79" t="n">
-        <v>11.71417236328125</v>
+        <v>-7.058147430419922</v>
       </c>
       <c r="N79" t="n">
-        <v>0.001902294112369418</v>
+        <v>0.001841983757913113</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2559323012828827</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>0.7271652221679688</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I80" t="b">
@@ -4443,40 +4443,40 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L80" t="n">
-        <v>-7.609490871429443</v>
+        <v>19.57563018798828</v>
       </c>
       <c r="M80" t="n">
-        <v>-30.23891067504883</v>
+        <v>6.485922813415527</v>
       </c>
       <c r="N80" t="n">
-        <v>0.001647472381591797</v>
+        <v>0.001778316451236606</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>intermitente izquierda</t>
+          <t>intermitente derecha</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LB-ON</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.3844383955001831</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1214323714375496</v>
+        <v>-0.1465735733509064</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -4493,47 +4493,47 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="L81" t="n">
-        <v>-7.726990222930908</v>
+        <v>19.7765998840332</v>
       </c>
       <c r="M81" t="n">
-        <v>-29.46682357788086</v>
+        <v>-7.19256591796875</v>
       </c>
       <c r="N81" t="n">
-        <v>0.001298618270084262</v>
+        <v>0.001916065230034292</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>giro izquierda</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9977864027023315</v>
+        <v>0.2796191573143005</v>
       </c>
       <c r="F82" t="n">
-        <v>0.01472995802760124</v>
+        <v>-0.05854105204343796</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I82" t="b">
@@ -4543,47 +4543,47 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L82" t="n">
-        <v>-12.06430912017822</v>
+        <v>15.46681213378906</v>
       </c>
       <c r="M82" t="n">
-        <v>-18.06827545166016</v>
+        <v>-14.6083517074585</v>
       </c>
       <c r="N82" t="n">
-        <v>0.00132749555632472</v>
+        <v>0.002125415718182921</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>mantengo acelerador</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>T-HOLD</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3882634043693542</v>
+        <v>0.6558634638786316</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.4721073806285858</v>
+        <v>-0.06250572204589844</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I83" t="b">
@@ -4596,44 +4596,44 @@
         <v>38</v>
       </c>
       <c r="L83" t="n">
-        <v>-19.5884952545166</v>
+        <v>10.9213399887085</v>
       </c>
       <c r="M83" t="n">
-        <v>-1.721668720245361</v>
+        <v>-34.34526443481445</v>
       </c>
       <c r="N83" t="n">
-        <v>0.002086505759507418</v>
+        <v>0.00170900346711278</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>sigo recto</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3959591090679169</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.09774307161569595</v>
+        <v>-0.09303539991378784</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I84" t="b">
@@ -4643,40 +4643,40 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L84" t="n">
-        <v>-18.158935546875</v>
+        <v>9.720303535461426</v>
       </c>
       <c r="M84" t="n">
-        <v>7.224797248840332</v>
+        <v>-41.79500579833984</v>
       </c>
       <c r="N84" t="n">
-        <v>0.001883907243609428</v>
+        <v>0.001697521191090345</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>intermitente derecha</t>
+          <t>acelero</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>T-ON</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.6114190220832825</v>
       </c>
       <c r="F85" t="n">
-        <v>0.800000011920929</v>
+        <v>0.02058845013380051</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -4693,16 +4693,16 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L85" t="n">
-        <v>0.1233608946204185</v>
+        <v>8.383475303649902</v>
       </c>
       <c r="M85" t="n">
-        <v>19.88681221008301</v>
+        <v>-50.03433609008789</v>
       </c>
       <c r="N85" t="n">
-        <v>0.00177396775688976</v>
+        <v>0.001722583780065179</v>
       </c>
     </row>
     <row r="86">
@@ -4717,23 +4717,23 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5371202230453491</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.1094534173607826</v>
+        <v>0.4050780832767487</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I86" t="b">
@@ -4743,47 +4743,47 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="L86" t="n">
-        <v>9.541423797607422</v>
+        <v>-6.568102836608887</v>
       </c>
       <c r="M86" t="n">
-        <v>16.5457763671875</v>
+        <v>-31.84853935241699</v>
       </c>
       <c r="N86" t="n">
-        <v>0.001802883110940456</v>
+        <v>0.001405124668963253</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>salgo rotonda</t>
+          <t>intermitente derecha</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>RND-EXIT</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.7131115794181824</v>
       </c>
       <c r="F87" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.2489291876554489</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I87" t="b">
@@ -4793,47 +4793,47 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="L87" t="n">
-        <v>13.30666732788086</v>
+        <v>-8.000955581665039</v>
       </c>
       <c r="M87" t="n">
-        <v>13.47765827178955</v>
+        <v>-24.61830520629883</v>
       </c>
       <c r="N87" t="n">
-        <v>0.001807994791306555</v>
+        <v>0.001604213728569448</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.2727921009063721</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F88" t="n">
-        <v>0.02569305524230003</v>
+        <v>0.2850536406040192</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I88" t="b">
@@ -4843,31 +4843,31 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="L88" t="n">
-        <v>-6.439136028289795</v>
+        <v>-17.965087890625</v>
       </c>
       <c r="M88" t="n">
-        <v>-39.51559829711914</v>
+        <v>-12.94511604309082</v>
       </c>
       <c r="N88" t="n">
-        <v>0.001947879791259766</v>
+        <v>0.001782779698260128</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>intermitente izquierda</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>LB-ON</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -4876,7 +4876,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.002258062362670898</v>
+        <v>0.03046547248959541</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -4893,31 +4893,31 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L89" t="n">
-        <v>-7.226675987243652</v>
+        <v>-7.293137073516846</v>
       </c>
       <c r="M89" t="n">
-        <v>-33.50397491455078</v>
+        <v>-34.35259628295898</v>
       </c>
       <c r="N89" t="n">
-        <v>0.001365489908494055</v>
+        <v>0.00176603312138468</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>giro izquierda</t>
+          <t>intermitente izquierda</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>LB-ON</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F90" t="n">
-        <v>0.06996823847293854</v>
+        <v>-0.08299248665571213</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -4943,40 +4943,40 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="L90" t="n">
-        <v>-9.954057693481445</v>
+        <v>-8.89764404296875</v>
       </c>
       <c r="M90" t="n">
-        <v>-24.36136817932129</v>
+        <v>-27.15318489074707</v>
       </c>
       <c r="N90" t="n">
-        <v>0.001399631495587528</v>
+        <v>0.001717586535960436</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>mantengo acelerador</t>
+          <t>giro izquierda</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>T-HOLD</t>
+          <t>TURN-L</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4598324596881866</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.1005920469760895</v>
+        <v>0.2412536889314651</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -4996,37 +4996,37 @@
         <v>38</v>
       </c>
       <c r="L91" t="n">
-        <v>-20.7217960357666</v>
+        <v>-12.88592052459717</v>
       </c>
       <c r="M91" t="n">
-        <v>1.157667994499207</v>
+        <v>-19.79437255859375</v>
       </c>
       <c r="N91" t="n">
-        <v>0.001970577286556363</v>
+        <v>0.001735362922772765</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>intermitente derecha</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4639680683612823</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1508980989456177</v>
+        <v>0.5637196898460388</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -5043,31 +5043,31 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L92" t="n">
-        <v>-12.71437358856201</v>
+        <v>-21.08345603942871</v>
       </c>
       <c r="M92" t="n">
-        <v>15.06105709075928</v>
+        <v>-2.517086029052734</v>
       </c>
       <c r="N92" t="n">
-        <v>0.001847324310801923</v>
+        <v>0.001879749237559736</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>intermitente derecha</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -5076,14 +5076,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F93" t="n">
-        <v>0.800000011920929</v>
+        <v>0.7715815305709839</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I93" t="b">
@@ -5093,40 +5093,40 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L93" t="n">
-        <v>-6.327820301055908</v>
+        <v>-16.63599014282227</v>
       </c>
       <c r="M93" t="n">
-        <v>18.57058525085449</v>
+        <v>10.20130252838135</v>
       </c>
       <c r="N93" t="n">
-        <v>0.001850070897489786</v>
+        <v>0.002073078183457255</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.2796191573143005</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1505393087863922</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -5143,47 +5143,47 @@
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L94" t="n">
-        <v>1.900376200675964</v>
+        <v>-14.00700569152832</v>
       </c>
       <c r="M94" t="n">
-        <v>19.70183944702148</v>
+        <v>14.32025718688965</v>
       </c>
       <c r="N94" t="n">
-        <v>0.001849155407398939</v>
+        <v>0.002015819540247321</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>salgo rotonda</t>
+          <t>gira derecha</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>RND-EXIT</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.4353832602500916</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.28935706615448</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I95" t="b">
@@ -5193,31 +5193,31 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="L95" t="n">
-        <v>9.319461822509766</v>
+        <v>-7.381232738494873</v>
       </c>
       <c r="M95" t="n">
-        <v>17.84906005859375</v>
+        <v>-35.75823974609375</v>
       </c>
       <c r="N95" t="n">
-        <v>0.001928768120706081</v>
+        <v>0.001935787149704993</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>intermitente izquierdo</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>LB-ON</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -5226,7 +5226,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.08594521135091782</v>
+        <v>-0.03233805298805237</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -5243,31 +5243,31 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L96" t="n">
-        <v>-7.668683528900146</v>
+        <v>-8.70897102355957</v>
       </c>
       <c r="M96" t="n">
-        <v>-32.85787200927734</v>
+        <v>-27.65143775939941</v>
       </c>
       <c r="N96" t="n">
-        <v>0.001588001265190542</v>
+        <v>0.001752757932990789</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>intermitente izquierdo</t>
+          <t>giro izquierda</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>LB-ON</t>
+          <t>TURN-L</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -5276,14 +5276,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.04417410492897034</v>
+        <v>0.2667447626590729</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I97" t="b">
@@ -5293,31 +5293,31 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L97" t="n">
-        <v>-8.065539360046387</v>
+        <v>-12.65599250793457</v>
       </c>
       <c r="M97" t="n">
-        <v>-30.15353775024414</v>
+        <v>-19.96142578125</v>
       </c>
       <c r="N97" t="n">
-        <v>0.001345157623291016</v>
+        <v>0.00173948286101222</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>giro izquierda</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -5326,14 +5326,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F98" t="n">
-        <v>0.800000011920929</v>
+        <v>0.5562611818313599</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I98" t="b">
@@ -5343,47 +5343,47 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L98" t="n">
-        <v>-11.54192638397217</v>
+        <v>19.17863845825195</v>
       </c>
       <c r="M98" t="n">
-        <v>-17.29285430908203</v>
+        <v>2.59606409072876</v>
       </c>
       <c r="N98" t="n">
-        <v>0.001791629707440734</v>
+        <v>0.001814136514440179</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>mantengo acelerador</t>
+          <t>intermitente derecho</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>T-HOLD</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>0.7999999523162842</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I99" t="b">
@@ -5393,47 +5393,47 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L99" t="n">
-        <v>-14.99660205841064</v>
+        <v>11.23703861236572</v>
       </c>
       <c r="M99" t="n">
-        <v>-11.49401473999023</v>
+        <v>-14.80431365966797</v>
       </c>
       <c r="N99" t="n">
-        <v>0.002177219372242689</v>
+        <v>0.002233867533504963</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>gira derecha</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.4722926616668701</v>
       </c>
       <c r="F100" t="n">
-        <v>0.03321350365877151</v>
+        <v>0.5</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I100" t="b">
@@ -5443,47 +5443,47 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L100" t="n">
-        <v>-14.30785083770752</v>
+        <v>7.468945980072021</v>
       </c>
       <c r="M100" t="n">
-        <v>13.58022689819336</v>
+        <v>-20.60627365112305</v>
       </c>
       <c r="N100" t="n">
-        <v>0.00162786478176713</v>
+        <v>0.002411327324807644</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>intermitente derecho</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7402968406677246</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.1721760630607605</v>
+        <v>-0.5040216445922852</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I101" t="b">
@@ -5493,47 +5493,47 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="L101" t="n">
-        <v>-7.40842342376709</v>
+        <v>7.231120586395264</v>
       </c>
       <c r="M101" t="n">
-        <v>18.8234920501709</v>
+        <v>-25.40747451782227</v>
       </c>
       <c r="N101" t="n">
-        <v>0.001645336160436273</v>
+        <v>0.001965656178072095</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>acelero</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>T-ON</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7184878587722778</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.1729869693517685</v>
+        <v>0.3502582907676697</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I102" t="b">
@@ -5543,66 +5543,4416 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="L102" t="n">
-        <v>2.018188238143921</v>
+        <v>-6.272570133209229</v>
       </c>
       <c r="M102" t="n">
-        <v>20.37089729309082</v>
+        <v>-33.06339645385742</v>
       </c>
       <c r="N102" t="n">
-        <v>0.001681804656982422</v>
+        <v>0.001576366368681192</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.8954657316207886</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.1204790771007538</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I103" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" t="b">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>27</v>
+      </c>
+      <c r="L103" t="n">
+        <v>-7.362459659576416</v>
+      </c>
+      <c r="M103" t="n">
+        <v>-27.23179817199707</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.001471233321353793</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>intermitente izquierda</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.9351054430007935</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.1481345891952515</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I104" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" t="b">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>43</v>
+      </c>
+      <c r="L104" t="n">
+        <v>-10.51638126373291</v>
+      </c>
+      <c r="M104" t="n">
+        <v>-20.90113639831543</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.001409854856319726</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>gira izquierda</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.6327950358390808</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" t="b">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>52</v>
+      </c>
+      <c r="L105" t="n">
+        <v>-14.30758857727051</v>
+      </c>
+      <c r="M105" t="n">
+        <v>-16.27779960632324</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.001466922694817185</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.1825698763132095</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I106" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" t="b">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>50</v>
+      </c>
+      <c r="L106" t="n">
+        <v>-21.64408874511719</v>
+      </c>
+      <c r="M106" t="n">
+        <v>-6.776158809661865</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.002140636323019862</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>intermitente derecha</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I107" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" t="b">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>35</v>
+      </c>
+      <c r="L107" t="n">
+        <v>-19.51577186584473</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4.441338062286377</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.002033748663961887</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>2</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.2134239226579666</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-0.01659377105534077</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I108" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" t="b">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>29</v>
+      </c>
+      <c r="L108" t="n">
+        <v>-15.78351974487305</v>
+      </c>
+      <c r="M108" t="n">
+        <v>11.21307182312012</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.001979961292818189</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
           <t>salgo rotonda</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>RND-EXIT</t>
         </is>
       </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
+      <c r="C109" t="n">
+        <v>2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" t="b">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>27</v>
+      </c>
+      <c r="L109" t="n">
+        <v>-13.74747657775879</v>
+      </c>
+      <c r="M109" t="n">
+        <v>14.58247566223145</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.001894817338325083</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>3</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.2634351253509521</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I110" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" t="b">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>24</v>
+      </c>
+      <c r="L110" t="n">
+        <v>-6.17384147644043</v>
+      </c>
+      <c r="M110" t="n">
+        <v>-36.63875961303711</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.001976909581571817</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>intermitente izquierda</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>3</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.6358579397201538</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.0844421312212944</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I111" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" t="b">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>34</v>
+      </c>
+      <c r="L111" t="n">
+        <v>-8.981756210327148</v>
+      </c>
+      <c r="M111" t="n">
+        <v>-25.18560981750488</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.001666583935730159</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>giro izquierda</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>3</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.6114190220832825</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.07958699762821198</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I112" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" t="b">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>40</v>
+      </c>
+      <c r="L112" t="n">
+        <v>-12.97269248962402</v>
+      </c>
+      <c r="M112" t="n">
+        <v>-19.34039688110352</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.001679019886069</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0.06278150528669357</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I113" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" t="b">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>46</v>
+      </c>
+      <c r="L113" t="n">
+        <v>-22.14925575256348</v>
+      </c>
+      <c r="M113" t="n">
+        <v>-6.368495464324951</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.001768398215062916</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.4934229850769043</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.1240230575203896</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I114" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" t="b">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>54</v>
+      </c>
+      <c r="L114" t="n">
+        <v>-7.866675853729248</v>
+      </c>
+      <c r="M114" t="n">
+        <v>20.88501739501953</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.001818485208787024</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>intermitente derecha</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>3</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.4866627156734467</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" t="b">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>52</v>
+      </c>
+      <c r="L115" t="n">
+        <v>6.484433650970459</v>
+      </c>
+      <c r="M115" t="n">
+        <v>20.48214149475098</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.001909389509819448</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>gira derecha</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>3</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.3440003991127014</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" t="b">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>46</v>
+      </c>
+      <c r="L116" t="n">
+        <v>13.53121280670166</v>
+      </c>
+      <c r="M116" t="n">
+        <v>16.32844924926758</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.002100925426930189</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>3</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.2198433727025986</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.07391879707574844</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I117" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" t="b">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>37</v>
+      </c>
+      <c r="L117" t="n">
+        <v>17.99380302429199</v>
+      </c>
+      <c r="M117" t="n">
+        <v>11.21696472167969</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.002130870707333088</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>giro izquierda</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>3</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.03341642022132874</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I118" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" t="b">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>30</v>
+      </c>
+      <c r="L118" t="n">
+        <v>-10.48390483856201</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-24.61585807800293</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.001601123716682196</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>acelero</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>T-ON</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>3</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.7463088035583496</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" t="b">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>45</v>
+      </c>
+      <c r="L119" t="n">
+        <v>-12.42118263244629</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-18.62558746337891</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.001362209324724972</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>3</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-0.04029076173901558</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" t="b">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>61</v>
+      </c>
+      <c r="L120" t="n">
+        <v>-16.76838302612305</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-9.434930801391602</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.001363811432383955</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>intermitente derecha</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>3</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.5680026412010193</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" t="b">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>47</v>
+      </c>
+      <c r="L121" t="n">
+        <v>-13.72001266479492</v>
+      </c>
+      <c r="M121" t="n">
+        <v>12.87589931488037</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.002149677136912942</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>3</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" t="b">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>43</v>
+      </c>
+      <c r="L122" t="n">
+        <v>-6.653746604919434</v>
+      </c>
+      <c r="M122" t="n">
+        <v>17.73668098449707</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.001948413788340986</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>3</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.2969964742660522</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" t="b">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>44</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1.439836859703064</v>
+      </c>
+      <c r="M123" t="n">
+        <v>19.02077484130859</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.001812877599149942</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>2</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-0.04690677300095558</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" t="b">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>19</v>
+      </c>
+      <c r="L124" t="n">
+        <v>-6.668121337890625</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-40.07714080810547</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.001635417924262583</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>intermitente izquierda</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>2</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-0.07662570476531982</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" t="b">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>25</v>
+      </c>
+      <c r="L125" t="n">
+        <v>-7.072994232177734</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-36.80922317504883</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.001633281703107059</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>giro izquierda</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.1724293529987335</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" t="b">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>42</v>
+      </c>
+      <c r="L126" t="n">
+        <v>-8.575874328613281</v>
+      </c>
+      <c r="M126" t="n">
+        <v>-26.7386417388916</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.001519794459454715</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>2</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" t="b">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>30</v>
+      </c>
+      <c r="L127" t="n">
+        <v>-17.549560546875</v>
+      </c>
+      <c r="M127" t="n">
+        <v>-9.892138481140137</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.002117900876328349</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>intermitente derecha</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.5506236553192139</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-0.1410684287548065</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" t="b">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>30</v>
+      </c>
+      <c r="L128" t="n">
+        <v>-19.6568431854248</v>
+      </c>
+      <c r="M128" t="n">
+        <v>-5.477761268615723</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.001813297276385128</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>2</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.5106658339500427</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-0.2234535068273544</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" t="b">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>35</v>
+      </c>
+      <c r="L129" t="n">
+        <v>-20.35999488830566</v>
+      </c>
+      <c r="M129" t="n">
+        <v>4.206693649291992</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.001787166576832533</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>2</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-0.2956543862819672</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" t="b">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>38</v>
+      </c>
+      <c r="L130" t="n">
+        <v>-18.56706428527832</v>
+      </c>
+      <c r="M130" t="n">
+        <v>9.291922569274902</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.001732578268274665</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>pongo intermitente izquierda</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>3</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.03639263287186623</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" t="b">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>25</v>
+      </c>
+      <c r="L131" t="n">
+        <v>-12.01088714599609</v>
+      </c>
+      <c r="M131" t="n">
+        <v>-18.64371490478516</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.002090396825224161</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>giro izquierda</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>3</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.7700908184051514</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" t="b">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>20</v>
+      </c>
+      <c r="L132" t="n">
+        <v>-13.68394374847412</v>
+      </c>
+      <c r="M132" t="n">
+        <v>-16.17480278015137</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.002055225428193808</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.4849154055118561</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.3875010311603546</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" t="b">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>23</v>
+      </c>
+      <c r="L133" t="n">
+        <v>-17.47516441345215</v>
+      </c>
+      <c r="M133" t="n">
+        <v>-10.13842105865479</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.001791515271179378</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>3</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.5735567212104797</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-0.1046696156263351</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" t="b">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>37</v>
+      </c>
+      <c r="L134" t="n">
+        <v>-17.62931632995605</v>
+      </c>
+      <c r="M134" t="n">
+        <v>8.653385162353516</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.001738223945721984</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>3</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" t="b">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>36</v>
+      </c>
+      <c r="L135" t="n">
+        <v>-7.969676494598389</v>
+      </c>
+      <c r="M135" t="n">
+        <v>18.79161071777344</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.001881313277408481</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>pongo intermitente derecha</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>3</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-0.03155277669429779</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" t="b">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>36</v>
+      </c>
+      <c r="L136" t="n">
+        <v>3.20716118812561</v>
+      </c>
+      <c r="M136" t="n">
+        <v>19.79253005981445</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.00184911722317338</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>3</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-0.08788592368364334</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" t="b">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>36</v>
+      </c>
+      <c r="L137" t="n">
+        <v>11.73307514190674</v>
+      </c>
+      <c r="M137" t="n">
+        <v>15.4570951461792</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.001840839395299554</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>3</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-0.2232709527015686</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I138" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" t="b">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>35</v>
+      </c>
+      <c r="L138" t="n">
+        <v>16.40233421325684</v>
+      </c>
+      <c r="M138" t="n">
+        <v>11.71417236328125</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.001902294112369418</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>3</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.2559323012828827</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I139" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" t="b">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>-7.609490871429443</v>
+      </c>
+      <c r="M139" t="n">
+        <v>-30.23891067504883</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.001647472381591797</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>intermitente izquierda</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>3</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.1214323714375496</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I140" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" t="b">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>10</v>
+      </c>
+      <c r="L140" t="n">
+        <v>-7.726990222930908</v>
+      </c>
+      <c r="M140" t="n">
+        <v>-29.46682357788086</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.001298618270084262</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>giro izquierda</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>3</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.9977864027023315</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.01472995802760124</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I141" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" t="b">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>44</v>
+      </c>
+      <c r="L141" t="n">
+        <v>-12.06430912017822</v>
+      </c>
+      <c r="M141" t="n">
+        <v>-18.06827545166016</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.00132749555632472</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>3</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.3882634043693542</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-0.4721073806285858</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" t="b">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>38</v>
+      </c>
+      <c r="L142" t="n">
+        <v>-19.5884952545166</v>
+      </c>
+      <c r="M142" t="n">
+        <v>-1.721668720245361</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.002086505759507418</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>3</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.3959591090679169</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-0.09774307161569595</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" t="b">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>36</v>
+      </c>
+      <c r="L143" t="n">
+        <v>-18.158935546875</v>
+      </c>
+      <c r="M143" t="n">
+        <v>7.224797248840332</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.001883907243609428</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>intermitente derecha</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>3</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I144" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" t="b">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>42</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.1233608946204185</v>
+      </c>
+      <c r="M144" t="n">
+        <v>19.88681221008301</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.00177396775688976</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>3</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.5371202230453491</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-0.1094534173607826</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I145" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" t="b">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>44</v>
+      </c>
+      <c r="L145" t="n">
+        <v>9.541423797607422</v>
+      </c>
+      <c r="M145" t="n">
+        <v>16.5457763671875</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.001802883110940456</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.6499999761581421</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I146" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" t="b">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>45</v>
+      </c>
+      <c r="L146" t="n">
+        <v>13.30666732788086</v>
+      </c>
+      <c r="M146" t="n">
+        <v>13.47765827178955</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.001807994791306555</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>3</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.2727921009063721</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.02569305524230003</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I147" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" t="b">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>18</v>
+      </c>
+      <c r="L147" t="n">
+        <v>-6.439136028289795</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-39.51559829711914</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.001947879791259766</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>intermitente izquierda</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>3</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-0.002258062362670898</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I148" t="b">
+        <v>0</v>
+      </c>
+      <c r="J148" t="b">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>31</v>
+      </c>
+      <c r="L148" t="n">
+        <v>-7.226675987243652</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-33.50397491455078</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0.001365489908494055</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>giro izquierda</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>3</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.06996823847293854</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I149" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149" t="b">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>50</v>
+      </c>
+      <c r="L149" t="n">
+        <v>-9.954057693481445</v>
+      </c>
+      <c r="M149" t="n">
+        <v>-24.36136817932129</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0.001399631495587528</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>3</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.4598324596881866</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-0.1005920469760895</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I150" t="b">
+        <v>0</v>
+      </c>
+      <c r="J150" t="b">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>38</v>
+      </c>
+      <c r="L150" t="n">
+        <v>-20.7217960357666</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1.157667994499207</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.001970577286556363</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>3</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.4639680683612823</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-0.1508980989456177</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I151" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151" t="b">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>38</v>
+      </c>
+      <c r="L151" t="n">
+        <v>-12.71437358856201</v>
+      </c>
+      <c r="M151" t="n">
+        <v>15.06105709075928</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.001847324310801923</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>intermitente derecha</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>3</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I152" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" t="b">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>38</v>
+      </c>
+      <c r="L152" t="n">
+        <v>-6.327820301055908</v>
+      </c>
+      <c r="M152" t="n">
+        <v>18.57058525085449</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.001850070897489786</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>3</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-0.1505393087863922</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I153" t="b">
+        <v>0</v>
+      </c>
+      <c r="J153" t="b">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>39</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1.900376200675964</v>
+      </c>
+      <c r="M153" t="n">
+        <v>19.70183944702148</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.001849155407398939</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>3</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-0.28935706615448</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I154" t="b">
+        <v>0</v>
+      </c>
+      <c r="J154" t="b">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>38</v>
+      </c>
+      <c r="L154" t="n">
+        <v>9.319461822509766</v>
+      </c>
+      <c r="M154" t="n">
+        <v>17.84906005859375</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0.001928768120706081</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>3</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-0.08594521135091782</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I155" t="b">
+        <v>0</v>
+      </c>
+      <c r="J155" t="b">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>21</v>
+      </c>
+      <c r="L155" t="n">
+        <v>-7.668683528900146</v>
+      </c>
+      <c r="M155" t="n">
+        <v>-32.85787200927734</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0.001588001265190542</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>intermitente izquierdo</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>3</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-0.04417410492897034</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I156" t="b">
+        <v>0</v>
+      </c>
+      <c r="J156" t="b">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>30</v>
+      </c>
+      <c r="L156" t="n">
+        <v>-8.065539360046387</v>
+      </c>
+      <c r="M156" t="n">
+        <v>-30.15353775024414</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.001345157623291016</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>giro izquierda</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>3</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I157" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" t="b">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>50</v>
+      </c>
+      <c r="L157" t="n">
+        <v>-11.54192638397217</v>
+      </c>
+      <c r="M157" t="n">
+        <v>-17.29285430908203</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0.001791629707440734</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I158" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158" t="b">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>41</v>
+      </c>
+      <c r="L158" t="n">
+        <v>-14.99660205841064</v>
+      </c>
+      <c r="M158" t="n">
+        <v>-11.49401473999023</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0.002177219372242689</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>3</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.03321350365877151</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I159" t="b">
+        <v>0</v>
+      </c>
+      <c r="J159" t="b">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>39</v>
+      </c>
+      <c r="L159" t="n">
+        <v>-14.30785083770752</v>
+      </c>
+      <c r="M159" t="n">
+        <v>13.58022689819336</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0.00162786478176713</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>intermitente derecho</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>3</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.7402968406677246</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-0.1721760630607605</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I160" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160" t="b">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>47</v>
+      </c>
+      <c r="L160" t="n">
+        <v>-7.40842342376709</v>
+      </c>
+      <c r="M160" t="n">
+        <v>18.8234920501709</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0.001645336160436273</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>3</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.7184878587722778</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-0.1729869693517685</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I161" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161" t="b">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>53</v>
+      </c>
+      <c r="L161" t="n">
+        <v>2.018188238143921</v>
+      </c>
+      <c r="M161" t="n">
+        <v>20.37089729309082</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0.001681804656982422</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>3</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="n">
         <v>0.262641042470932</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F162" t="n">
         <v>-0.1882605105638504</v>
       </c>
-      <c r="G103" t="n">
-        <v>0</v>
-      </c>
-      <c r="H103" t="inlineStr">
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr">
         <is>
           <t>Right_Blinker</t>
         </is>
       </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" t="b">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
+      <c r="I162" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" t="b">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
         <v>53</v>
       </c>
-      <c r="L103" t="n">
+      <c r="L162" t="n">
         <v>9.619074821472168</v>
       </c>
-      <c r="M103" t="n">
+      <c r="M162" t="n">
         <v>17.82783126831055</v>
       </c>
-      <c r="N103" t="n">
+      <c r="N162" t="n">
         <v>0.001866130740381777</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>2</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.02017961256206036</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I163" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" t="b">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>-6.582223415374756</v>
+      </c>
+      <c r="M163" t="n">
+        <v>-37.75758743286133</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0.001689662924036384</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>intermitente izquierdo</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>2</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.02259934134781361</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I164" t="b">
+        <v>0</v>
+      </c>
+      <c r="J164" t="b">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>7</v>
+      </c>
+      <c r="L164" t="n">
+        <v>-6.626899242401123</v>
+      </c>
+      <c r="M164" t="n">
+        <v>-37.4244270324707</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0.001302776276133955</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>giro izquierda</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>2</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.03896473720669746</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I165" t="b">
+        <v>0</v>
+      </c>
+      <c r="J165" t="b">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>34</v>
+      </c>
+      <c r="L165" t="n">
+        <v>-7.571831703186035</v>
+      </c>
+      <c r="M165" t="n">
+        <v>-31.08913803100586</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0.001301059732213616</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>2</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.4200171232223511</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I166" t="b">
+        <v>0</v>
+      </c>
+      <c r="J166" t="b">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>50</v>
+      </c>
+      <c r="L166" t="n">
+        <v>-10.12677574157715</v>
+      </c>
+      <c r="M166" t="n">
+        <v>-22.49588584899902</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0.001482524792663753</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>pongo intermitente derecho</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>2</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.04999995231628418</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I167" t="b">
+        <v>0</v>
+      </c>
+      <c r="J167" t="b">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>23</v>
+      </c>
+      <c r="L167" t="n">
+        <v>-20.53985214233398</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0.7286361455917358</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.002110958099365234</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.01458738744258881</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-0.08057253807783127</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I168" t="b">
+        <v>0</v>
+      </c>
+      <c r="J168" t="b">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>18</v>
+      </c>
+      <c r="L168" t="n">
+        <v>-19.83660888671875</v>
+      </c>
+      <c r="M168" t="n">
+        <v>3.655119657516479</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0.001833248068578541</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>2</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.171032726764679</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I169" t="b">
+        <v>0</v>
+      </c>
+      <c r="J169" t="b">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>15</v>
+      </c>
+      <c r="L169" t="n">
+        <v>-17.57027244567871</v>
+      </c>
+      <c r="M169" t="n">
+        <v>8.40400218963623</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0.00163152685854584</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>4</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.01598099991679192</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I170" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" t="b">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>25</v>
+      </c>
+      <c r="L170" t="n">
+        <v>-6.567257404327393</v>
+      </c>
+      <c r="M170" t="n">
+        <v>-37.08819198608398</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0.001796665135771036</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>intermitente izquierda</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>4</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F171" t="n">
+        <v>-0.02928037941455841</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I171" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" t="b">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>34</v>
+      </c>
+      <c r="L171" t="n">
+        <v>-7.295948505401611</v>
+      </c>
+      <c r="M171" t="n">
+        <v>-32.84867477416992</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0.001461543957702816</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>giro izquierda</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>4</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.7193111777305603</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I172" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" t="b">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>45</v>
+      </c>
+      <c r="L172" t="n">
+        <v>-11.20461559295654</v>
+      </c>
+      <c r="M172" t="n">
+        <v>-20.00529670715332</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0.001992854988202453</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>4</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.05735496059060097</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I173" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" t="b">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>39</v>
+      </c>
+      <c r="L173" t="n">
+        <v>-13.43575382232666</v>
+      </c>
+      <c r="M173" t="n">
+        <v>-16.09528350830078</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0.002162341959774494</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>4</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" t="b">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>27</v>
+      </c>
+      <c r="L174" t="n">
+        <v>-18.98644828796387</v>
+      </c>
+      <c r="M174" t="n">
+        <v>-6.994636058807373</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0.001928043318912387</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>4</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.3543706238269806</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-0.2355739176273346</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" t="b">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>63</v>
+      </c>
+      <c r="L175" t="n">
+        <v>-4.998819351196289</v>
+      </c>
+      <c r="M175" t="n">
+        <v>19.86908340454102</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0.00181772222276777</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>intermitente derecha</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>4</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.325208991765976</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-0.1391278654336929</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" t="b">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>47</v>
+      </c>
+      <c r="L176" t="n">
+        <v>14.19852638244629</v>
+      </c>
+      <c r="M176" t="n">
+        <v>12.79707050323486</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0.002024478977546096</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>4</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.1306879967451096</v>
+      </c>
+      <c r="F177" t="n">
+        <v>-0.1657578945159912</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" t="b">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>39</v>
+      </c>
+      <c r="L177" t="n">
+        <v>18.08421325683594</v>
+      </c>
+      <c r="M177" t="n">
+        <v>4.274359703063965</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0.002111987909302115</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>4</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.9835022687911987</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" t="b">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>44</v>
+      </c>
+      <c r="L178" t="n">
+        <v>13.29389762878418</v>
+      </c>
+      <c r="M178" t="n">
+        <v>-13.19249153137207</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0.001459674793295562</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.01850748807191849</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" t="b">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>7</v>
+      </c>
+      <c r="L179" t="n">
+        <v>-7.048802375793457</v>
+      </c>
+      <c r="M179" t="n">
+        <v>-36.2669563293457</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0.001330852508544922</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>intermitente derecha</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.03049049712717533</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" t="b">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>23</v>
+      </c>
+      <c r="L180" t="n">
+        <v>-7.398098468780518</v>
+      </c>
+      <c r="M180" t="n">
+        <v>-32.91838455200195</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0.00151483528316021</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.4330384433269501</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" t="b">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>49</v>
+      </c>
+      <c r="L181" t="n">
+        <v>-12.30206108093262</v>
+      </c>
+      <c r="M181" t="n">
+        <v>-18.99560928344727</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.00144617073237896</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>4</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-0.2538861930370331</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" t="b">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>27</v>
+      </c>
+      <c r="L182" t="n">
+        <v>-7.374916076660156</v>
+      </c>
+      <c r="M182" t="n">
+        <v>-36.52316665649414</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0.001726665417663753</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>intermitente izquierda</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>4</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-0.3561001420021057</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" t="b">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>40</v>
+      </c>
+      <c r="L183" t="n">
+        <v>-8.384727478027344</v>
+      </c>
+      <c r="M183" t="n">
+        <v>-32.15097427368164</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0.00132352823857218</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>giro izquierda</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>4</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.5610677003860474</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" t="b">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>57</v>
+      </c>
+      <c r="L184" t="n">
+        <v>-11.87734222412109</v>
+      </c>
+      <c r="M184" t="n">
+        <v>-20.21049308776855</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0.001590900355949998</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>4</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.6651404500007629</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" t="b">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>58</v>
+      </c>
+      <c r="L185" t="n">
+        <v>-14.07845783233643</v>
+      </c>
+      <c r="M185" t="n">
+        <v>-15.97092342376709</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0.00171094888355583</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>mantengo acelerador</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>T-HOLD</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>4</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Left_Blinker</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" t="b">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>43</v>
+      </c>
+      <c r="L186" t="n">
+        <v>-19.60117721557617</v>
+      </c>
+      <c r="M186" t="n">
+        <v>3.188936710357666</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0.002044391585513949</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>quito intermitente</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>BLK-OFF</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>4</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F187" t="n">
+        <v>-0.1056757122278214</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I187" t="b">
+        <v>0</v>
+      </c>
+      <c r="J187" t="b">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>48</v>
+      </c>
+      <c r="L187" t="n">
+        <v>18.01658058166504</v>
+      </c>
+      <c r="M187" t="n">
+        <v>7.276134490966797</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0.001942119561135769</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>intermitente derecha</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>4</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.2134239226579666</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-0.1348220705986023</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="I188" t="b">
+        <v>0</v>
+      </c>
+      <c r="J188" t="b">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>44</v>
+      </c>
+      <c r="L188" t="n">
+        <v>18.98239135742188</v>
+      </c>
+      <c r="M188" t="n">
+        <v>2.447467803955078</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.002055377932265401</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>giro derecha</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>TURN-R</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>4</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.1484721601009369</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-0.1117135137319565</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I189" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" t="b">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>34</v>
+      </c>
+      <c r="L189" t="n">
+        <v>16.76653480529785</v>
+      </c>
+      <c r="M189" t="n">
+        <v>-8.148841857910156</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.002056255238130689</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>salgo rotonda</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>4</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="F190" t="n">
+        <v>-0.2330744862556458</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Right_Blinker</t>
+        </is>
+      </c>
+      <c r="I190" t="b">
+        <v>0</v>
+      </c>
+      <c r="J190" t="b">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>35</v>
+      </c>
+      <c r="L190" t="n">
+        <v>14.72302722930908</v>
+      </c>
+      <c r="M190" t="n">
+        <v>-11.73766231536865</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.001780528924427927</v>
       </c>
     </row>
   </sheetData>

--- a/dataset_excel/dentro_rotonda_train.xlsx
+++ b/dataset_excel/dentro_rotonda_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N190"/>
+  <dimension ref="A1:N189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4558,12 +4558,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -4573,17 +4573,17 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6558634638786316</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.06250572204589844</v>
+        <v>-0.800000011920929</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I83" t="b">
@@ -4593,31 +4593,31 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L83" t="n">
-        <v>10.9213399887085</v>
+        <v>11.56580257415771</v>
       </c>
       <c r="M83" t="n">
-        <v>-34.34526443481445</v>
+        <v>-19.83598136901855</v>
       </c>
       <c r="N83" t="n">
-        <v>0.00170900346711278</v>
+        <v>0.002488384256139398</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>sigo recto</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -4626,7 +4626,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.09303539991378784</v>
+        <v>0.4050780832767487</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -4643,40 +4643,40 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L84" t="n">
-        <v>9.720303535461426</v>
+        <v>-6.568102836608887</v>
       </c>
       <c r="M84" t="n">
-        <v>-41.79500579833984</v>
+        <v>-31.84853935241699</v>
       </c>
       <c r="N84" t="n">
-        <v>0.001697521191090345</v>
+        <v>0.001405124668963253</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>acelero</t>
+          <t>intermitente derecha</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>T-ON</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6114190220832825</v>
+        <v>0.7131115794181824</v>
       </c>
       <c r="F85" t="n">
-        <v>0.02058845013380051</v>
+        <v>0.2489291876554489</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -4693,27 +4693,27 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="L85" t="n">
-        <v>8.383475303649902</v>
+        <v>-8.000955581665039</v>
       </c>
       <c r="M85" t="n">
-        <v>-50.03433609008789</v>
+        <v>-24.61830520629883</v>
       </c>
       <c r="N85" t="n">
-        <v>0.001722583780065179</v>
+        <v>0.001604213728569448</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -4726,14 +4726,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F86" t="n">
-        <v>0.4050780832767487</v>
+        <v>0.2850536406040192</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I86" t="b">
@@ -4743,40 +4743,40 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="L86" t="n">
-        <v>-6.568102836608887</v>
+        <v>-17.965087890625</v>
       </c>
       <c r="M86" t="n">
-        <v>-31.84853935241699</v>
+        <v>-12.94511604309082</v>
       </c>
       <c r="N86" t="n">
-        <v>0.001405124668963253</v>
+        <v>0.001782779698260128</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>intermitente derecha</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7131115794181824</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2489291876554489</v>
+        <v>0.03046547248959541</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -4793,31 +4793,31 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L87" t="n">
-        <v>-8.000955581665039</v>
+        <v>-7.293137073516846</v>
       </c>
       <c r="M87" t="n">
-        <v>-24.61830520629883</v>
+        <v>-34.35259628295898</v>
       </c>
       <c r="N87" t="n">
-        <v>0.001604213728569448</v>
+        <v>0.00176603312138468</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>salgo rotonda</t>
+          <t>intermitente izquierda</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>RND-EXIT</t>
+          <t>LB-ON</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -4826,14 +4826,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2850536406040192</v>
+        <v>-0.08299248665571213</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I88" t="b">
@@ -4843,27 +4843,27 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="L88" t="n">
-        <v>-17.965087890625</v>
+        <v>-8.89764404296875</v>
       </c>
       <c r="M88" t="n">
-        <v>-12.94511604309082</v>
+        <v>-27.15318489074707</v>
       </c>
       <c r="N88" t="n">
-        <v>0.001782779698260128</v>
+        <v>0.001717586535960436</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>giro izquierda</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>TURN-L</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -4876,14 +4876,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F89" t="n">
-        <v>0.03046547248959541</v>
+        <v>0.2412536889314651</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I89" t="b">
@@ -4893,27 +4893,27 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L89" t="n">
-        <v>-7.293137073516846</v>
+        <v>-12.88592052459717</v>
       </c>
       <c r="M89" t="n">
-        <v>-34.35259628295898</v>
+        <v>-19.79437255859375</v>
       </c>
       <c r="N89" t="n">
-        <v>0.00176603312138468</v>
+        <v>0.001735362922772765</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>intermitente izquierda</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>LB-ON</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -4923,17 +4923,17 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.5020059943199158</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.08299248665571213</v>
+        <v>-0.2378262132406235</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I90" t="b">
@@ -4943,27 +4943,27 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="L90" t="n">
-        <v>-8.89764404296875</v>
+        <v>-20.16416549682617</v>
       </c>
       <c r="M90" t="n">
-        <v>-27.15318489074707</v>
+        <v>-7.858899593353271</v>
       </c>
       <c r="N90" t="n">
-        <v>0.001717586535960436</v>
+        <v>0.001834316179156303</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>giro izquierda</t>
+          <t>intermitente derecha</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -4976,7 +4976,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2412536889314651</v>
+        <v>0.5637196898460388</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -4993,27 +4993,27 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L91" t="n">
-        <v>-12.88592052459717</v>
+        <v>-21.08345603942871</v>
       </c>
       <c r="M91" t="n">
-        <v>-19.79437255859375</v>
+        <v>-2.517086029052734</v>
       </c>
       <c r="N91" t="n">
-        <v>0.001735362922772765</v>
+        <v>0.001879749237559736</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>intermitente derecha</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -5026,14 +5026,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5637196898460388</v>
+        <v>0.7715815305709839</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I92" t="b">
@@ -5043,27 +5043,27 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L92" t="n">
-        <v>-21.08345603942871</v>
+        <v>-16.63599014282227</v>
       </c>
       <c r="M92" t="n">
-        <v>-2.517086029052734</v>
+        <v>10.20130252838135</v>
       </c>
       <c r="N92" t="n">
-        <v>0.001879749237559736</v>
+        <v>0.002073078183457255</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -5073,10 +5073,10 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.2796191573143005</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7715815305709839</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -5093,37 +5093,37 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L93" t="n">
-        <v>-16.63599014282227</v>
+        <v>-14.00700569152832</v>
       </c>
       <c r="M93" t="n">
-        <v>10.20130252838135</v>
+        <v>14.32025718688965</v>
       </c>
       <c r="N93" t="n">
-        <v>0.002073078183457255</v>
+        <v>0.002015819540247321</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>salgo rotonda</t>
+          <t>gira derecha</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>RND-EXIT</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2796191573143005</v>
+        <v>0.4353832602500916</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I94" t="b">
@@ -5143,27 +5143,27 @@
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L94" t="n">
-        <v>-14.00700569152832</v>
+        <v>-7.381232738494873</v>
       </c>
       <c r="M94" t="n">
-        <v>14.32025718688965</v>
+        <v>-35.75823974609375</v>
       </c>
       <c r="N94" t="n">
-        <v>0.002015819540247321</v>
+        <v>0.001935787149704993</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>gira derecha</t>
+          <t>intermitente izquierdo</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>LB-ON</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -5173,10 +5173,10 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4353832602500916</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>-0.03233805298805237</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -5193,27 +5193,27 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L95" t="n">
-        <v>-7.381232738494873</v>
+        <v>-8.70897102355957</v>
       </c>
       <c r="M95" t="n">
-        <v>-35.75823974609375</v>
+        <v>-27.65143775939941</v>
       </c>
       <c r="N95" t="n">
-        <v>0.001935787149704993</v>
+        <v>0.001752757932990789</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>intermitente izquierdo</t>
+          <t>giro izquierda</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>LB-ON</t>
+          <t>TURN-L</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -5226,14 +5226,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.03233805298805237</v>
+        <v>0.2667447626590729</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I96" t="b">
@@ -5243,27 +5243,27 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L96" t="n">
-        <v>-8.70897102355957</v>
+        <v>-12.65599250793457</v>
       </c>
       <c r="M96" t="n">
-        <v>-27.65143775939941</v>
+        <v>-19.96142578125</v>
       </c>
       <c r="N96" t="n">
-        <v>0.001752757932990789</v>
+        <v>0.00173948286101222</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>giro izquierda</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -5276,7 +5276,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2667447626590729</v>
+        <v>0.5562611818313599</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -5293,27 +5293,27 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="L97" t="n">
-        <v>-12.65599250793457</v>
+        <v>19.17863845825195</v>
       </c>
       <c r="M97" t="n">
-        <v>-19.96142578125</v>
+        <v>2.59606409072876</v>
       </c>
       <c r="N97" t="n">
-        <v>0.00173948286101222</v>
+        <v>0.001814136514440179</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>intermitente derecho</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -5326,14 +5326,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5562611818313599</v>
+        <v>0.7999999523162842</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I98" t="b">
@@ -5343,27 +5343,27 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L98" t="n">
-        <v>19.17863845825195</v>
+        <v>11.23703861236572</v>
       </c>
       <c r="M98" t="n">
-        <v>2.59606409072876</v>
+        <v>-14.80431365966797</v>
       </c>
       <c r="N98" t="n">
-        <v>0.001814136514440179</v>
+        <v>0.002233867533504963</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>intermitente derecho</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -5373,10 +5373,10 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.4722926616668701</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7999999523162842</v>
+        <v>0.5</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -5393,27 +5393,27 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="L99" t="n">
-        <v>11.23703861236572</v>
+        <v>7.468945980072021</v>
       </c>
       <c r="M99" t="n">
-        <v>-14.80431365966797</v>
+        <v>-20.60627365112305</v>
       </c>
       <c r="N99" t="n">
-        <v>0.002233867533504963</v>
+        <v>0.002411327324807644</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>gira derecha</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -5423,10 +5423,10 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4722926616668701</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5</v>
+        <v>-0.5040216445922852</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -5446,28 +5446,28 @@
         <v>37</v>
       </c>
       <c r="L100" t="n">
-        <v>7.468945980072021</v>
+        <v>7.231120586395264</v>
       </c>
       <c r="M100" t="n">
-        <v>-20.60627365112305</v>
+        <v>-25.40747451782227</v>
       </c>
       <c r="N100" t="n">
-        <v>0.002411327324807644</v>
+        <v>0.001965656178072095</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>salgo rotonda</t>
+          <t>acelero</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>RND-EXIT</t>
+          <t>T-ON</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -5476,14 +5476,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.5040216445922852</v>
+        <v>0.3502582907676697</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I101" t="b">
@@ -5493,27 +5493,27 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="L101" t="n">
-        <v>7.231120586395264</v>
+        <v>-6.272570133209229</v>
       </c>
       <c r="M101" t="n">
-        <v>-25.40747451782227</v>
+        <v>-33.06339645385742</v>
       </c>
       <c r="N101" t="n">
-        <v>0.001965656178072095</v>
+        <v>0.001576366368681192</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>acelero</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>T-ON</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -5523,10 +5523,10 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.8954657316207886</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3502582907676697</v>
+        <v>0.1204790771007538</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -5543,27 +5543,27 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="L102" t="n">
-        <v>-6.272570133209229</v>
+        <v>-7.362459659576416</v>
       </c>
       <c r="M102" t="n">
-        <v>-33.06339645385742</v>
+        <v>-27.23179817199707</v>
       </c>
       <c r="N102" t="n">
-        <v>0.001576366368681192</v>
+        <v>0.001471233321353793</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>intermitente izquierda</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>LB-ON</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -5573,10 +5573,10 @@
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.8954657316207886</v>
+        <v>0.9351054430007935</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1204790771007538</v>
+        <v>0.1481345891952515</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -5593,27 +5593,27 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="L103" t="n">
-        <v>-7.362459659576416</v>
+        <v>-10.51638126373291</v>
       </c>
       <c r="M103" t="n">
-        <v>-27.23179817199707</v>
+        <v>-20.90113639831543</v>
       </c>
       <c r="N103" t="n">
-        <v>0.001471233321353793</v>
+        <v>0.001409854856319726</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>intermitente izquierda</t>
+          <t>giro izquierda</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>LB-ON</t>
+          <t>TURN-L</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -5623,17 +5623,17 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9351054430007935</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1481345891952515</v>
+        <v>0.6327950358390808</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I104" t="b">
@@ -5643,27 +5643,27 @@
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L104" t="n">
-        <v>-10.51638126373291</v>
+        <v>-14.30758857727051</v>
       </c>
       <c r="M104" t="n">
-        <v>-20.90113639831543</v>
+        <v>-16.27779960632324</v>
       </c>
       <c r="N104" t="n">
-        <v>0.001409854856319726</v>
+        <v>0.001466922694817185</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>gira izquierda</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -5676,7 +5676,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F105" t="n">
-        <v>0.6327950358390808</v>
+        <v>0.1825698763132095</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -5693,27 +5693,27 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L105" t="n">
-        <v>-14.30758857727051</v>
+        <v>-21.64408874511719</v>
       </c>
       <c r="M105" t="n">
-        <v>-16.27779960632324</v>
+        <v>-6.776158809661865</v>
       </c>
       <c r="N105" t="n">
-        <v>0.001466922694817185</v>
+        <v>0.002140636323019862</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>intermitente derecha</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -5726,14 +5726,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1825698763132095</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I106" t="b">
@@ -5743,27 +5743,27 @@
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="L106" t="n">
-        <v>-21.64408874511719</v>
+        <v>-19.51577186584473</v>
       </c>
       <c r="M106" t="n">
-        <v>-6.776158809661865</v>
+        <v>4.441338062286377</v>
       </c>
       <c r="N106" t="n">
-        <v>0.002140636323019862</v>
+        <v>0.002033748663961887</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>intermitente derecha</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -5773,17 +5773,17 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.2134239226579666</v>
       </c>
       <c r="F107" t="n">
-        <v>0.800000011920929</v>
+        <v>-0.01659377105534077</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I107" t="b">
@@ -5793,27 +5793,27 @@
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L107" t="n">
-        <v>-19.51577186584473</v>
+        <v>-15.78351974487305</v>
       </c>
       <c r="M107" t="n">
-        <v>4.441338062286377</v>
+        <v>11.21307182312012</v>
       </c>
       <c r="N107" t="n">
-        <v>0.002033748663961887</v>
+        <v>0.001979961292818189</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -5823,10 +5823,10 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0.2134239226579666</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.01659377105534077</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -5843,31 +5843,31 @@
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L108" t="n">
-        <v>-15.78351974487305</v>
+        <v>-13.74747657775879</v>
       </c>
       <c r="M108" t="n">
-        <v>11.21307182312012</v>
+        <v>14.58247566223145</v>
       </c>
       <c r="N108" t="n">
-        <v>0.001979961292818189</v>
+        <v>0.001894817338325083</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>salgo rotonda</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>RND-EXIT</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -5876,14 +5876,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F109" t="n">
-        <v>0.800000011920929</v>
+        <v>0.2634351253509521</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I109" t="b">
@@ -5893,27 +5893,27 @@
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L109" t="n">
-        <v>-13.74747657775879</v>
+        <v>-6.17384147644043</v>
       </c>
       <c r="M109" t="n">
-        <v>14.58247566223145</v>
+        <v>-36.63875961303711</v>
       </c>
       <c r="N109" t="n">
-        <v>0.001894817338325083</v>
+        <v>0.001976909581571817</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>intermitente izquierda</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>LB-ON</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -5923,10 +5923,10 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.6358579397201538</v>
       </c>
       <c r="F110" t="n">
-        <v>0.2634351253509521</v>
+        <v>0.0844421312212944</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -5943,27 +5943,27 @@
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="L110" t="n">
-        <v>-6.17384147644043</v>
+        <v>-8.981756210327148</v>
       </c>
       <c r="M110" t="n">
-        <v>-36.63875961303711</v>
+        <v>-25.18560981750488</v>
       </c>
       <c r="N110" t="n">
-        <v>0.001976909581571817</v>
+        <v>0.001666583935730159</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>intermitente izquierda</t>
+          <t>giro izquierda</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>LB-ON</t>
+          <t>TURN-L</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -5973,17 +5973,17 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6358579397201538</v>
+        <v>0.6114190220832825</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0844421312212944</v>
+        <v>0.07958699762821198</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I111" t="b">
@@ -5993,27 +5993,27 @@
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L111" t="n">
-        <v>-8.981756210327148</v>
+        <v>-12.97269248962402</v>
       </c>
       <c r="M111" t="n">
-        <v>-25.18560981750488</v>
+        <v>-19.34039688110352</v>
       </c>
       <c r="N111" t="n">
-        <v>0.001666583935730159</v>
+        <v>0.001679019886069</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>giro izquierda</t>
+          <t>mantengo acelerador</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>T-HOLD</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -6023,10 +6023,10 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0.6114190220832825</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F112" t="n">
-        <v>0.07958699762821198</v>
+        <v>-0.06278150528669357</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -6043,27 +6043,27 @@
         <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L112" t="n">
-        <v>-12.97269248962402</v>
+        <v>-22.14925575256348</v>
       </c>
       <c r="M112" t="n">
-        <v>-19.34039688110352</v>
+        <v>-6.368495464324951</v>
       </c>
       <c r="N112" t="n">
-        <v>0.001679019886069</v>
+        <v>0.001768398215062916</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>mantengo acelerador</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>T-HOLD</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -6073,10 +6073,10 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.4934229850769043</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.06278150528669357</v>
+        <v>-0.1240230575203896</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -6093,27 +6093,27 @@
         <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L113" t="n">
-        <v>-22.14925575256348</v>
+        <v>-7.866675853729248</v>
       </c>
       <c r="M113" t="n">
-        <v>-6.368495464324951</v>
+        <v>20.88501739501953</v>
       </c>
       <c r="N113" t="n">
-        <v>0.001768398215062916</v>
+        <v>0.001818485208787024</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>intermitente derecha</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -6123,17 +6123,17 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4934229850769043</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.1240230575203896</v>
+        <v>0.4866627156734467</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I114" t="b">
@@ -6143,27 +6143,27 @@
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L114" t="n">
-        <v>-7.866675853729248</v>
+        <v>6.484433650970459</v>
       </c>
       <c r="M114" t="n">
-        <v>20.88501739501953</v>
+        <v>20.48214149475098</v>
       </c>
       <c r="N114" t="n">
-        <v>0.001818485208787024</v>
+        <v>0.001909389509819448</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>intermitente derecha</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -6176,14 +6176,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F115" t="n">
-        <v>0.4866627156734467</v>
+        <v>0.3440003991127014</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I115" t="b">
@@ -6193,27 +6193,27 @@
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L115" t="n">
-        <v>6.484433650970459</v>
+        <v>13.53121280670166</v>
       </c>
       <c r="M115" t="n">
-        <v>20.48214149475098</v>
+        <v>16.32844924926758</v>
       </c>
       <c r="N115" t="n">
-        <v>0.001909389509819448</v>
+        <v>0.002100925426930189</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>gira derecha</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -6223,10 +6223,10 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.2198433727025986</v>
       </c>
       <c r="F116" t="n">
-        <v>0.3440003991127014</v>
+        <v>0.07391879707574844</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -6243,27 +6243,27 @@
         <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L116" t="n">
-        <v>13.53121280670166</v>
+        <v>17.99380302429199</v>
       </c>
       <c r="M116" t="n">
-        <v>16.32844924926758</v>
+        <v>11.21696472167969</v>
       </c>
       <c r="N116" t="n">
-        <v>0.002100925426930189</v>
+        <v>0.002130870707333088</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>salgo rotonda</t>
+          <t>giro izquierda</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>RND-EXIT</t>
+          <t>TURN-L</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -6273,17 +6273,17 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2198433727025986</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F117" t="n">
-        <v>0.07391879707574844</v>
+        <v>-0.03341642022132874</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I117" t="b">
@@ -6293,27 +6293,27 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L117" t="n">
-        <v>17.99380302429199</v>
+        <v>-10.48390483856201</v>
       </c>
       <c r="M117" t="n">
-        <v>11.21696472167969</v>
+        <v>-24.61585807800293</v>
       </c>
       <c r="N117" t="n">
-        <v>0.002130870707333088</v>
+        <v>0.001601123716682196</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>giro izquierda</t>
+          <t>acelero</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>T-ON</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -6326,7 +6326,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.03341642022132874</v>
+        <v>0.7463088035583496</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -6343,27 +6343,27 @@
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="L118" t="n">
-        <v>-10.48390483856201</v>
+        <v>-12.42118263244629</v>
       </c>
       <c r="M118" t="n">
-        <v>-24.61585807800293</v>
+        <v>-18.62558746337891</v>
       </c>
       <c r="N118" t="n">
-        <v>0.001601123716682196</v>
+        <v>0.001362209324724972</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>acelero</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>T-ON</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -6373,10 +6373,10 @@
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0.8500000238418579</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.7463088035583496</v>
+        <v>-0.04029076173901558</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -6393,27 +6393,27 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="L119" t="n">
-        <v>-12.42118263244629</v>
+        <v>-16.76838302612305</v>
       </c>
       <c r="M119" t="n">
-        <v>-18.62558746337891</v>
+        <v>-9.434930801391602</v>
       </c>
       <c r="N119" t="n">
-        <v>0.001362209324724972</v>
+        <v>0.001363811432383955</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>intermitente derecha</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -6423,17 +6423,17 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F120" t="n">
-        <v>-0.04029076173901558</v>
+        <v>0.5680026412010193</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I120" t="b">
@@ -6443,27 +6443,27 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="L120" t="n">
-        <v>-16.76838302612305</v>
+        <v>-13.72001266479492</v>
       </c>
       <c r="M120" t="n">
-        <v>-9.434930801391602</v>
+        <v>12.87589931488037</v>
       </c>
       <c r="N120" t="n">
-        <v>0.001363811432383955</v>
+        <v>0.002149677136912942</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>intermitente derecha</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -6476,7 +6476,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5680026412010193</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -6493,27 +6493,27 @@
         <v>0</v>
       </c>
       <c r="K121" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L121" t="n">
-        <v>-13.72001266479492</v>
+        <v>-6.653746604919434</v>
       </c>
       <c r="M121" t="n">
-        <v>12.87589931488037</v>
+        <v>17.73668098449707</v>
       </c>
       <c r="N121" t="n">
-        <v>0.002149677136912942</v>
+        <v>0.001948413788340986</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -6526,14 +6526,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F122" t="n">
-        <v>0.800000011920929</v>
+        <v>0.2969964742660522</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I122" t="b">
@@ -6543,31 +6543,31 @@
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L122" t="n">
-        <v>-6.653746604919434</v>
+        <v>1.439836859703064</v>
       </c>
       <c r="M122" t="n">
-        <v>17.73668098449707</v>
+        <v>19.02077484130859</v>
       </c>
       <c r="N122" t="n">
-        <v>0.001948413788340986</v>
+        <v>0.001812877599149942</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>salgo rotonda</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>RND-EXIT</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -6576,14 +6576,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F123" t="n">
-        <v>0.2969964742660522</v>
+        <v>-0.04690677300095558</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I123" t="b">
@@ -6593,27 +6593,27 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="L123" t="n">
-        <v>1.439836859703064</v>
+        <v>-6.668121337890625</v>
       </c>
       <c r="M123" t="n">
-        <v>19.02077484130859</v>
+        <v>-40.07714080810547</v>
       </c>
       <c r="N123" t="n">
-        <v>0.001812877599149942</v>
+        <v>0.001635417924262583</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>intermitente izquierda</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>LB-ON</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -6626,7 +6626,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F124" t="n">
-        <v>-0.04690677300095558</v>
+        <v>-0.07662570476531982</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -6643,27 +6643,27 @@
         <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L124" t="n">
-        <v>-6.668121337890625</v>
+        <v>-7.072994232177734</v>
       </c>
       <c r="M124" t="n">
-        <v>-40.07714080810547</v>
+        <v>-36.80922317504883</v>
       </c>
       <c r="N124" t="n">
-        <v>0.001635417924262583</v>
+        <v>0.001633281703107059</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>intermitente izquierda</t>
+          <t>giro izquierda</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>LB-ON</t>
+          <t>TURN-L</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -6676,7 +6676,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.07662570476531982</v>
+        <v>0.1724293529987335</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -6693,27 +6693,27 @@
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L125" t="n">
-        <v>-7.072994232177734</v>
+        <v>-8.575874328613281</v>
       </c>
       <c r="M125" t="n">
-        <v>-36.80922317504883</v>
+        <v>-26.7386417388916</v>
       </c>
       <c r="N125" t="n">
-        <v>0.001633281703107059</v>
+        <v>0.001519794459454715</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>giro izquierda</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -6726,14 +6726,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F126" t="n">
-        <v>0.1724293529987335</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I126" t="b">
@@ -6743,27 +6743,27 @@
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L126" t="n">
-        <v>-8.575874328613281</v>
+        <v>-17.549560546875</v>
       </c>
       <c r="M126" t="n">
-        <v>-26.7386417388916</v>
+        <v>-9.892138481140137</v>
       </c>
       <c r="N126" t="n">
-        <v>0.001519794459454715</v>
+        <v>0.002117900876328349</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>intermitente derecha</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -6773,17 +6773,17 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.5506236553192139</v>
       </c>
       <c r="F127" t="n">
-        <v>0.800000011920929</v>
+        <v>-0.1410684287548065</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I127" t="b">
@@ -6796,24 +6796,24 @@
         <v>30</v>
       </c>
       <c r="L127" t="n">
-        <v>-17.549560546875</v>
+        <v>-19.6568431854248</v>
       </c>
       <c r="M127" t="n">
-        <v>-9.892138481140137</v>
+        <v>-5.477761268615723</v>
       </c>
       <c r="N127" t="n">
-        <v>0.002117900876328349</v>
+        <v>0.001813297276385128</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>intermitente derecha</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -6823,17 +6823,17 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5506236553192139</v>
+        <v>0.5106658339500427</v>
       </c>
       <c r="F128" t="n">
-        <v>-0.1410684287548065</v>
+        <v>-0.2234535068273544</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I128" t="b">
@@ -6843,27 +6843,27 @@
         <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L128" t="n">
-        <v>-19.6568431854248</v>
+        <v>-20.35999488830566</v>
       </c>
       <c r="M128" t="n">
-        <v>-5.477761268615723</v>
+        <v>4.206693649291992</v>
       </c>
       <c r="N128" t="n">
-        <v>0.001813297276385128</v>
+        <v>0.001787166576832533</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -6873,10 +6873,10 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5106658339500427</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.2234535068273544</v>
+        <v>-0.2956543862819672</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -6893,47 +6893,47 @@
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L129" t="n">
-        <v>-20.35999488830566</v>
+        <v>-18.56706428527832</v>
       </c>
       <c r="M129" t="n">
-        <v>4.206693649291992</v>
+        <v>9.291922569274902</v>
       </c>
       <c r="N129" t="n">
-        <v>0.001787166576832533</v>
+        <v>0.001732578268274665</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>salgo rotonda</t>
+          <t>pongo intermitente izquierda</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>RND-EXIT</t>
+          <t>LB-ON</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0.8500000238418579</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.2956543862819672</v>
+        <v>0.03639263287186623</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I130" t="b">
@@ -6943,27 +6943,27 @@
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L130" t="n">
-        <v>-18.56706428527832</v>
+        <v>-12.01088714599609</v>
       </c>
       <c r="M130" t="n">
-        <v>9.291922569274902</v>
+        <v>-18.64371490478516</v>
       </c>
       <c r="N130" t="n">
-        <v>0.001732578268274665</v>
+        <v>0.002090396825224161</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>pongo intermitente izquierda</t>
+          <t>giro izquierda</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>LB-ON</t>
+          <t>TURN-L</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -6973,17 +6973,17 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F131" t="n">
-        <v>0.03639263287186623</v>
+        <v>0.7700908184051514</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I131" t="b">
@@ -6993,27 +6993,27 @@
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L131" t="n">
-        <v>-12.01088714599609</v>
+        <v>-13.68394374847412</v>
       </c>
       <c r="M131" t="n">
-        <v>-18.64371490478516</v>
+        <v>-16.17480278015137</v>
       </c>
       <c r="N131" t="n">
-        <v>0.002090396825224161</v>
+        <v>0.002055225428193808</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>giro izquierda</t>
+          <t>mantengo acelerador</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>T-HOLD</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -7023,10 +7023,10 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.4849154055118561</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7700908184051514</v>
+        <v>-0.3875010311603546</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -7043,16 +7043,16 @@
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L132" t="n">
-        <v>-13.68394374847412</v>
+        <v>-17.47516441345215</v>
       </c>
       <c r="M132" t="n">
-        <v>-16.17480278015137</v>
+        <v>-10.13842105865479</v>
       </c>
       <c r="N132" t="n">
-        <v>0.002055225428193808</v>
+        <v>0.001791515271179378</v>
       </c>
     </row>
     <row r="133">
@@ -7073,10 +7073,10 @@
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>0.4849154055118561</v>
+        <v>0.5735567212104797</v>
       </c>
       <c r="F133" t="n">
-        <v>-0.3875010311603546</v>
+        <v>-0.1046696156263351</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -7093,27 +7093,27 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="L133" t="n">
-        <v>-17.47516441345215</v>
+        <v>-17.62931632995605</v>
       </c>
       <c r="M133" t="n">
-        <v>-10.13842105865479</v>
+        <v>8.653385162353516</v>
       </c>
       <c r="N133" t="n">
-        <v>0.001791515271179378</v>
+        <v>0.001738223945721984</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>mantengo acelerador</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>T-HOLD</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -7123,10 +7123,10 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0.5735567212104797</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.1046696156263351</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -7143,27 +7143,27 @@
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L134" t="n">
-        <v>-17.62931632995605</v>
+        <v>-7.969676494598389</v>
       </c>
       <c r="M134" t="n">
-        <v>8.653385162353516</v>
+        <v>18.79161071777344</v>
       </c>
       <c r="N134" t="n">
-        <v>0.001738223945721984</v>
+        <v>0.001881313277408481</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>pongo intermitente derecha</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -7176,14 +7176,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F135" t="n">
-        <v>0.800000011920929</v>
+        <v>-0.03155277669429779</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I135" t="b">
@@ -7196,24 +7196,24 @@
         <v>36</v>
       </c>
       <c r="L135" t="n">
-        <v>-7.969676494598389</v>
+        <v>3.20716118812561</v>
       </c>
       <c r="M135" t="n">
-        <v>18.79161071777344</v>
+        <v>19.79253005981445</v>
       </c>
       <c r="N135" t="n">
-        <v>0.001881313277408481</v>
+        <v>0.00184911722317338</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>pongo intermitente derecha</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -7226,14 +7226,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F136" t="n">
-        <v>-0.03155277669429779</v>
+        <v>-0.08788592368364334</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I136" t="b">
@@ -7246,24 +7246,24 @@
         <v>36</v>
       </c>
       <c r="L136" t="n">
-        <v>3.20716118812561</v>
+        <v>11.73307514190674</v>
       </c>
       <c r="M136" t="n">
-        <v>19.79253005981445</v>
+        <v>15.4570951461792</v>
       </c>
       <c r="N136" t="n">
-        <v>0.00184911722317338</v>
+        <v>0.001840839395299554</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -7276,7 +7276,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.08788592368364334</v>
+        <v>-0.2232709527015686</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -7293,27 +7293,27 @@
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L137" t="n">
-        <v>11.73307514190674</v>
+        <v>16.40233421325684</v>
       </c>
       <c r="M137" t="n">
-        <v>15.4570951461792</v>
+        <v>11.71417236328125</v>
       </c>
       <c r="N137" t="n">
-        <v>0.001840839395299554</v>
+        <v>0.001902294112369418</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>salgo rotonda</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>RND-EXIT</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -7323,17 +7323,17 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.2559323012828827</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.2232709527015686</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I138" t="b">
@@ -7343,27 +7343,27 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>16.40233421325684</v>
+        <v>-7.609490871429443</v>
       </c>
       <c r="M138" t="n">
-        <v>11.71417236328125</v>
+        <v>-30.23891067504883</v>
       </c>
       <c r="N138" t="n">
-        <v>0.001902294112369418</v>
+        <v>0.001647472381591797</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>intermitente izquierda</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>LB-ON</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -7373,10 +7373,10 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0.2559323012828827</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>0.1214323714375496</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -7393,27 +7393,27 @@
         <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L139" t="n">
-        <v>-7.609490871429443</v>
+        <v>-7.726990222930908</v>
       </c>
       <c r="M139" t="n">
-        <v>-30.23891067504883</v>
+        <v>-29.46682357788086</v>
       </c>
       <c r="N139" t="n">
-        <v>0.001647472381591797</v>
+        <v>0.001298618270084262</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>intermitente izquierda</t>
+          <t>giro izquierda</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>LB-ON</t>
+          <t>TURN-L</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -7423,17 +7423,17 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.9977864027023315</v>
       </c>
       <c r="F140" t="n">
-        <v>0.1214323714375496</v>
+        <v>0.01472995802760124</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I140" t="b">
@@ -7443,27 +7443,27 @@
         <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="L140" t="n">
-        <v>-7.726990222930908</v>
+        <v>-12.06430912017822</v>
       </c>
       <c r="M140" t="n">
-        <v>-29.46682357788086</v>
+        <v>-18.06827545166016</v>
       </c>
       <c r="N140" t="n">
-        <v>0.001298618270084262</v>
+        <v>0.00132749555632472</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>giro izquierda</t>
+          <t>mantengo acelerador</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>T-HOLD</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -7473,10 +7473,10 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.9977864027023315</v>
+        <v>0.3882634043693542</v>
       </c>
       <c r="F141" t="n">
-        <v>0.01472995802760124</v>
+        <v>-0.4721073806285858</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -7493,27 +7493,27 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="L141" t="n">
-        <v>-12.06430912017822</v>
+        <v>-19.5884952545166</v>
       </c>
       <c r="M141" t="n">
-        <v>-18.06827545166016</v>
+        <v>-1.721668720245361</v>
       </c>
       <c r="N141" t="n">
-        <v>0.00132749555632472</v>
+        <v>0.002086505759507418</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>mantengo acelerador</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>T-HOLD</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -7523,10 +7523,10 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3882634043693542</v>
+        <v>0.3959591090679169</v>
       </c>
       <c r="F142" t="n">
-        <v>-0.4721073806285858</v>
+        <v>-0.09774307161569595</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -7543,27 +7543,27 @@
         <v>0</v>
       </c>
       <c r="K142" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L142" t="n">
-        <v>-19.5884952545166</v>
+        <v>-18.158935546875</v>
       </c>
       <c r="M142" t="n">
-        <v>-1.721668720245361</v>
+        <v>7.224797248840332</v>
       </c>
       <c r="N142" t="n">
-        <v>0.002086505759507418</v>
+        <v>0.001883907243609428</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>intermitente derecha</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -7573,17 +7573,17 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3959591090679169</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F143" t="n">
-        <v>-0.09774307161569595</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I143" t="b">
@@ -7593,27 +7593,27 @@
         <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L143" t="n">
-        <v>-18.158935546875</v>
+        <v>0.1233608946204185</v>
       </c>
       <c r="M143" t="n">
-        <v>7.224797248840332</v>
+        <v>19.88681221008301</v>
       </c>
       <c r="N143" t="n">
-        <v>0.001883907243609428</v>
+        <v>0.00177396775688976</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>intermitente derecha</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -7623,17 +7623,17 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.5371202230453491</v>
       </c>
       <c r="F144" t="n">
-        <v>0.800000011920929</v>
+        <v>-0.1094534173607826</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I144" t="b">
@@ -7643,27 +7643,27 @@
         <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1233608946204185</v>
+        <v>9.541423797607422</v>
       </c>
       <c r="M144" t="n">
-        <v>19.88681221008301</v>
+        <v>16.5457763671875</v>
       </c>
       <c r="N144" t="n">
-        <v>0.00177396775688976</v>
+        <v>0.001802883110940456</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -7673,10 +7673,10 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>0.5371202230453491</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F145" t="n">
-        <v>-0.1094534173607826</v>
+        <v>0.6499999761581421</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -7693,27 +7693,27 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L145" t="n">
-        <v>9.541423797607422</v>
+        <v>13.30666732788086</v>
       </c>
       <c r="M145" t="n">
-        <v>16.5457763671875</v>
+        <v>13.47765827178955</v>
       </c>
       <c r="N145" t="n">
-        <v>0.001802883110940456</v>
+        <v>0.001807994791306555</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>salgo rotonda</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>RND-EXIT</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -7723,17 +7723,17 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.2727921009063721</v>
       </c>
       <c r="F146" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.02569305524230003</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I146" t="b">
@@ -7743,27 +7743,27 @@
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="L146" t="n">
-        <v>13.30666732788086</v>
+        <v>-6.439136028289795</v>
       </c>
       <c r="M146" t="n">
-        <v>13.47765827178955</v>
+        <v>-39.51559829711914</v>
       </c>
       <c r="N146" t="n">
-        <v>0.001807994791306555</v>
+        <v>0.001947879791259766</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>intermitente izquierda</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>LB-ON</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -7773,10 +7773,10 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0.2727921009063721</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F147" t="n">
-        <v>0.02569305524230003</v>
+        <v>-0.002258062362670898</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -7793,27 +7793,27 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L147" t="n">
-        <v>-6.439136028289795</v>
+        <v>-7.226675987243652</v>
       </c>
       <c r="M147" t="n">
-        <v>-39.51559829711914</v>
+        <v>-33.50397491455078</v>
       </c>
       <c r="N147" t="n">
-        <v>0.001947879791259766</v>
+        <v>0.001365489908494055</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>intermitente izquierda</t>
+          <t>giro izquierda</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>LB-ON</t>
+          <t>TURN-L</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -7826,7 +7826,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F148" t="n">
-        <v>-0.002258062362670898</v>
+        <v>0.06996823847293854</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -7843,27 +7843,27 @@
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="L148" t="n">
-        <v>-7.226675987243652</v>
+        <v>-9.954057693481445</v>
       </c>
       <c r="M148" t="n">
-        <v>-33.50397491455078</v>
+        <v>-24.36136817932129</v>
       </c>
       <c r="N148" t="n">
-        <v>0.001365489908494055</v>
+        <v>0.001399631495587528</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>giro izquierda</t>
+          <t>mantengo acelerador</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>T-HOLD</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -7873,17 +7873,17 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.4598324596881866</v>
       </c>
       <c r="F149" t="n">
-        <v>0.06996823847293854</v>
+        <v>-0.1005920469760895</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I149" t="b">
@@ -7893,27 +7893,27 @@
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L149" t="n">
-        <v>-9.954057693481445</v>
+        <v>-20.7217960357666</v>
       </c>
       <c r="M149" t="n">
-        <v>-24.36136817932129</v>
+        <v>1.157667994499207</v>
       </c>
       <c r="N149" t="n">
-        <v>0.001399631495587528</v>
+        <v>0.001970577286556363</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>mantengo acelerador</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>T-HOLD</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -7923,10 +7923,10 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>0.4598324596881866</v>
+        <v>0.4639680683612823</v>
       </c>
       <c r="F150" t="n">
-        <v>-0.1005920469760895</v>
+        <v>-0.1508980989456177</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -7946,24 +7946,24 @@
         <v>38</v>
       </c>
       <c r="L150" t="n">
-        <v>-20.7217960357666</v>
+        <v>-12.71437358856201</v>
       </c>
       <c r="M150" t="n">
-        <v>1.157667994499207</v>
+        <v>15.06105709075928</v>
       </c>
       <c r="N150" t="n">
-        <v>0.001970577286556363</v>
+        <v>0.001847324310801923</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>intermitente derecha</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -7973,10 +7973,10 @@
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.4639680683612823</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F151" t="n">
-        <v>-0.1508980989456177</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -7996,24 +7996,24 @@
         <v>38</v>
       </c>
       <c r="L151" t="n">
-        <v>-12.71437358856201</v>
+        <v>-6.327820301055908</v>
       </c>
       <c r="M151" t="n">
-        <v>15.06105709075928</v>
+        <v>18.57058525085449</v>
       </c>
       <c r="N151" t="n">
-        <v>0.001847324310801923</v>
+        <v>0.001850070897489786</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>intermitente derecha</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -8026,14 +8026,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F152" t="n">
-        <v>0.800000011920929</v>
+        <v>-0.1505393087863922</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I152" t="b">
@@ -8043,27 +8043,27 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L152" t="n">
-        <v>-6.327820301055908</v>
+        <v>1.900376200675964</v>
       </c>
       <c r="M152" t="n">
-        <v>18.57058525085449</v>
+        <v>19.70183944702148</v>
       </c>
       <c r="N152" t="n">
-        <v>0.001850070897489786</v>
+        <v>0.001849155407398939</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -8076,7 +8076,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F153" t="n">
-        <v>-0.1505393087863922</v>
+        <v>-0.28935706615448</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -8093,27 +8093,27 @@
         <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L153" t="n">
-        <v>1.900376200675964</v>
+        <v>9.319461822509766</v>
       </c>
       <c r="M153" t="n">
-        <v>19.70183944702148</v>
+        <v>17.84906005859375</v>
       </c>
       <c r="N153" t="n">
-        <v>0.001849155407398939</v>
+        <v>0.001928768120706081</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>salgo rotonda</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>RND-EXIT</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -8126,14 +8126,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F154" t="n">
-        <v>-0.28935706615448</v>
+        <v>-0.08594521135091782</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I154" t="b">
@@ -8143,27 +8143,27 @@
         <v>0</v>
       </c>
       <c r="K154" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="L154" t="n">
-        <v>9.319461822509766</v>
+        <v>-7.668683528900146</v>
       </c>
       <c r="M154" t="n">
-        <v>17.84906005859375</v>
+        <v>-32.85787200927734</v>
       </c>
       <c r="N154" t="n">
-        <v>0.001928768120706081</v>
+        <v>0.001588001265190542</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>intermitente izquierdo</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>LB-ON</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -8176,7 +8176,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F155" t="n">
-        <v>-0.08594521135091782</v>
+        <v>-0.04417410492897034</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -8193,27 +8193,27 @@
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L155" t="n">
-        <v>-7.668683528900146</v>
+        <v>-8.065539360046387</v>
       </c>
       <c r="M155" t="n">
-        <v>-32.85787200927734</v>
+        <v>-30.15353775024414</v>
       </c>
       <c r="N155" t="n">
-        <v>0.001588001265190542</v>
+        <v>0.001345157623291016</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>intermitente izquierdo</t>
+          <t>giro izquierda</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>LB-ON</t>
+          <t>TURN-L</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -8226,7 +8226,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F156" t="n">
-        <v>-0.04417410492897034</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -8243,27 +8243,27 @@
         <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L156" t="n">
-        <v>-8.065539360046387</v>
+        <v>-11.54192638397217</v>
       </c>
       <c r="M156" t="n">
-        <v>-30.15353775024414</v>
+        <v>-17.29285430908203</v>
       </c>
       <c r="N156" t="n">
-        <v>0.001345157623291016</v>
+        <v>0.001791629707440734</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>giro izquierda</t>
+          <t>mantengo acelerador</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>T-HOLD</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -8273,17 +8273,17 @@
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>0.8500000238418579</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.800000011920929</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I157" t="b">
@@ -8293,27 +8293,27 @@
         <v>0</v>
       </c>
       <c r="K157" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L157" t="n">
-        <v>-11.54192638397217</v>
+        <v>-14.99660205841064</v>
       </c>
       <c r="M157" t="n">
-        <v>-17.29285430908203</v>
+        <v>-11.49401473999023</v>
       </c>
       <c r="N157" t="n">
-        <v>0.001791629707440734</v>
+        <v>0.002177219372242689</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>mantengo acelerador</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>T-HOLD</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -8323,10 +8323,10 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>0.03321350365877151</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -8343,27 +8343,27 @@
         <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L158" t="n">
-        <v>-14.99660205841064</v>
+        <v>-14.30785083770752</v>
       </c>
       <c r="M158" t="n">
-        <v>-11.49401473999023</v>
+        <v>13.58022689819336</v>
       </c>
       <c r="N158" t="n">
-        <v>0.002177219372242689</v>
+        <v>0.00162786478176713</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>intermitente derecho</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.7402968406677246</v>
       </c>
       <c r="F159" t="n">
-        <v>0.03321350365877151</v>
+        <v>-0.1721760630607605</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -8393,27 +8393,27 @@
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="L159" t="n">
-        <v>-14.30785083770752</v>
+        <v>-7.40842342376709</v>
       </c>
       <c r="M159" t="n">
-        <v>13.58022689819336</v>
+        <v>18.8234920501709</v>
       </c>
       <c r="N159" t="n">
-        <v>0.00162786478176713</v>
+        <v>0.001645336160436273</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>intermitente derecho</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -8423,17 +8423,17 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>0.7402968406677246</v>
+        <v>0.7184878587722778</v>
       </c>
       <c r="F160" t="n">
-        <v>-0.1721760630607605</v>
+        <v>-0.1729869693517685</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I160" t="b">
@@ -8443,27 +8443,27 @@
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L160" t="n">
-        <v>-7.40842342376709</v>
+        <v>2.018188238143921</v>
       </c>
       <c r="M160" t="n">
-        <v>18.8234920501709</v>
+        <v>20.37089729309082</v>
       </c>
       <c r="N160" t="n">
-        <v>0.001645336160436273</v>
+        <v>0.001681804656982422</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -8473,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>0.7184878587722778</v>
+        <v>0.262641042470932</v>
       </c>
       <c r="F161" t="n">
-        <v>-0.1729869693517685</v>
+        <v>-0.1882605105638504</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -8496,44 +8496,44 @@
         <v>53</v>
       </c>
       <c r="L161" t="n">
-        <v>2.018188238143921</v>
+        <v>9.619074821472168</v>
       </c>
       <c r="M161" t="n">
-        <v>20.37089729309082</v>
+        <v>17.82783126831055</v>
       </c>
       <c r="N161" t="n">
-        <v>0.001681804656982422</v>
+        <v>0.001866130740381777</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>salgo rotonda</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>RND-EXIT</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>0.262641042470932</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F162" t="n">
-        <v>-0.1882605105638504</v>
+        <v>0.02017961256206036</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I162" t="b">
@@ -8543,27 +8543,27 @@
         <v>0</v>
       </c>
       <c r="K162" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
-        <v>9.619074821472168</v>
+        <v>-6.582223415374756</v>
       </c>
       <c r="M162" t="n">
-        <v>17.82783126831055</v>
+        <v>-37.75758743286133</v>
       </c>
       <c r="N162" t="n">
-        <v>0.001866130740381777</v>
+        <v>0.001689662924036384</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>intermitente izquierdo</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>LB-ON</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -8573,10 +8573,10 @@
         <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>0.8500000238418579</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.02017961256206036</v>
+        <v>0.02259934134781361</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -8593,27 +8593,27 @@
         <v>0</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L163" t="n">
-        <v>-6.582223415374756</v>
+        <v>-6.626899242401123</v>
       </c>
       <c r="M163" t="n">
-        <v>-37.75758743286133</v>
+        <v>-37.4244270324707</v>
       </c>
       <c r="N163" t="n">
-        <v>0.001689662924036384</v>
+        <v>0.001302776276133955</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>intermitente izquierdo</t>
+          <t>giro izquierda</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>LB-ON</t>
+          <t>TURN-L</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -8626,7 +8626,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.02259934134781361</v>
+        <v>0.03896473720669746</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -8643,27 +8643,27 @@
         <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="L164" t="n">
-        <v>-6.626899242401123</v>
+        <v>-7.571831703186035</v>
       </c>
       <c r="M164" t="n">
-        <v>-37.4244270324707</v>
+        <v>-31.08913803100586</v>
       </c>
       <c r="N164" t="n">
-        <v>0.001302776276133955</v>
+        <v>0.001301059732213616</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>giro izquierda</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -8673,17 +8673,17 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F165" t="n">
-        <v>0.03896473720669746</v>
+        <v>0.4200171232223511</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I165" t="b">
@@ -8693,27 +8693,27 @@
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="L165" t="n">
-        <v>-7.571831703186035</v>
+        <v>-10.12677574157715</v>
       </c>
       <c r="M165" t="n">
-        <v>-31.08913803100586</v>
+        <v>-22.49588584899902</v>
       </c>
       <c r="N165" t="n">
-        <v>0.001301059732213616</v>
+        <v>0.001482524792663753</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>pongo intermitente derecho</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -8726,14 +8726,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F166" t="n">
-        <v>0.4200171232223511</v>
+        <v>0.04999995231628418</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I166" t="b">
@@ -8743,27 +8743,27 @@
         <v>0</v>
       </c>
       <c r="K166" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="L166" t="n">
-        <v>-10.12677574157715</v>
+        <v>-20.53985214233398</v>
       </c>
       <c r="M166" t="n">
-        <v>-22.49588584899902</v>
+        <v>0.7286361455917358</v>
       </c>
       <c r="N166" t="n">
-        <v>0.001482524792663753</v>
+        <v>0.002110958099365234</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>pongo intermitente derecho</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -8773,17 +8773,17 @@
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.01458738744258881</v>
       </c>
       <c r="F167" t="n">
-        <v>0.04999995231628418</v>
+        <v>-0.08057253807783127</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I167" t="b">
@@ -8793,27 +8793,27 @@
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L167" t="n">
-        <v>-20.53985214233398</v>
+        <v>-19.83660888671875</v>
       </c>
       <c r="M167" t="n">
-        <v>0.7286361455917358</v>
+        <v>3.655119657516479</v>
       </c>
       <c r="N167" t="n">
-        <v>0.002110958099365234</v>
+        <v>0.001833248068578541</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -8823,10 +8823,10 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>0.01458738744258881</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F168" t="n">
-        <v>-0.08057253807783127</v>
+        <v>0.171032726764679</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
@@ -8843,31 +8843,31 @@
         <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L168" t="n">
-        <v>-19.83660888671875</v>
+        <v>-17.57027244567871</v>
       </c>
       <c r="M168" t="n">
-        <v>3.655119657516479</v>
+        <v>8.40400218963623</v>
       </c>
       <c r="N168" t="n">
-        <v>0.001833248068578541</v>
+        <v>0.00163152685854584</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>salgo rotonda</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>RND-EXIT</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -8876,14 +8876,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F169" t="n">
-        <v>0.171032726764679</v>
+        <v>0.01598099991679192</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I169" t="b">
@@ -8893,27 +8893,27 @@
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L169" t="n">
-        <v>-17.57027244567871</v>
+        <v>-6.567257404327393</v>
       </c>
       <c r="M169" t="n">
-        <v>8.40400218963623</v>
+        <v>-37.08819198608398</v>
       </c>
       <c r="N169" t="n">
-        <v>0.00163152685854584</v>
+        <v>0.001796665135771036</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>intermitente izquierda</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>LB-ON</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -8926,7 +8926,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F170" t="n">
-        <v>0.01598099991679192</v>
+        <v>-0.02928037941455841</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -8943,27 +8943,27 @@
         <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L170" t="n">
-        <v>-6.567257404327393</v>
+        <v>-7.295948505401611</v>
       </c>
       <c r="M170" t="n">
-        <v>-37.08819198608398</v>
+        <v>-32.84867477416992</v>
       </c>
       <c r="N170" t="n">
-        <v>0.001796665135771036</v>
+        <v>0.001461543957702816</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>intermitente izquierda</t>
+          <t>giro izquierda</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>LB-ON</t>
+          <t>TURN-L</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -8976,14 +8976,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.02928037941455841</v>
+        <v>0.7193111777305603</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I171" t="b">
@@ -8993,27 +8993,27 @@
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="L171" t="n">
-        <v>-7.295948505401611</v>
+        <v>-11.20461559295654</v>
       </c>
       <c r="M171" t="n">
-        <v>-32.84867477416992</v>
+        <v>-20.00529670715332</v>
       </c>
       <c r="N171" t="n">
-        <v>0.001461543957702816</v>
+        <v>0.001992854988202453</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>giro izquierda</t>
+          <t>mantengo acelerador</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>T-HOLD</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>0.8500000238418579</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.7193111777305603</v>
+        <v>0.05735496059060097</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -9043,16 +9043,16 @@
         <v>0</v>
       </c>
       <c r="K172" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L172" t="n">
-        <v>-11.20461559295654</v>
+        <v>-13.43575382232666</v>
       </c>
       <c r="M172" t="n">
-        <v>-20.00529670715332</v>
+        <v>-16.09528350830078</v>
       </c>
       <c r="N172" t="n">
-        <v>0.001992854988202453</v>
+        <v>0.002162341959774494</v>
       </c>
     </row>
     <row r="173">
@@ -9073,10 +9073,10 @@
         <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F173" t="n">
-        <v>0.05735496059060097</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -9093,27 +9093,27 @@
         <v>0</v>
       </c>
       <c r="K173" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L173" t="n">
-        <v>-13.43575382232666</v>
+        <v>-18.98644828796387</v>
       </c>
       <c r="M173" t="n">
-        <v>-16.09528350830078</v>
+        <v>-6.994636058807373</v>
       </c>
       <c r="N173" t="n">
-        <v>0.002162341959774494</v>
+        <v>0.001928043318912387</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>mantengo acelerador</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>T-HOLD</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -9123,10 +9123,10 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.3543706238269806</v>
       </c>
       <c r="F174" t="n">
-        <v>0.800000011920929</v>
+        <v>-0.2355739176273346</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -9143,27 +9143,27 @@
         <v>0</v>
       </c>
       <c r="K174" t="n">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="L174" t="n">
-        <v>-18.98644828796387</v>
+        <v>-4.998819351196289</v>
       </c>
       <c r="M174" t="n">
-        <v>-6.994636058807373</v>
+        <v>19.86908340454102</v>
       </c>
       <c r="N174" t="n">
-        <v>0.001928043318912387</v>
+        <v>0.00181772222276777</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>intermitente derecha</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -9173,17 +9173,17 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>0.3543706238269806</v>
+        <v>0.325208991765976</v>
       </c>
       <c r="F175" t="n">
-        <v>-0.2355739176273346</v>
+        <v>-0.1391278654336929</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I175" t="b">
@@ -9193,27 +9193,27 @@
         <v>0</v>
       </c>
       <c r="K175" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="L175" t="n">
-        <v>-4.998819351196289</v>
+        <v>14.19852638244629</v>
       </c>
       <c r="M175" t="n">
-        <v>19.86908340454102</v>
+        <v>12.79707050323486</v>
       </c>
       <c r="N175" t="n">
-        <v>0.00181772222276777</v>
+        <v>0.002024478977546096</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>intermitente derecha</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -9223,17 +9223,17 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0.325208991765976</v>
+        <v>0.1306879967451096</v>
       </c>
       <c r="F176" t="n">
-        <v>-0.1391278654336929</v>
+        <v>-0.1657578945159912</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I176" t="b">
@@ -9243,27 +9243,27 @@
         <v>0</v>
       </c>
       <c r="K176" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="L176" t="n">
-        <v>14.19852638244629</v>
+        <v>18.08421325683594</v>
       </c>
       <c r="M176" t="n">
-        <v>12.79707050323486</v>
+        <v>4.274359703063965</v>
       </c>
       <c r="N176" t="n">
-        <v>0.002024478977546096</v>
+        <v>0.002111987909302115</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -9273,10 +9273,10 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>0.1306879967451096</v>
+        <v>0.9835022687911987</v>
       </c>
       <c r="F177" t="n">
-        <v>-0.1657578945159912</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -9293,47 +9293,47 @@
         <v>0</v>
       </c>
       <c r="K177" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L177" t="n">
-        <v>18.08421325683594</v>
+        <v>13.29389762878418</v>
       </c>
       <c r="M177" t="n">
-        <v>4.274359703063965</v>
+        <v>-13.19249153137207</v>
       </c>
       <c r="N177" t="n">
-        <v>0.002111987909302115</v>
+        <v>0.001459674793295562</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>salgo rotonda</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>RND-EXIT</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0.9835022687911987</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>0.01850748807191849</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I178" t="b">
@@ -9343,27 +9343,27 @@
         <v>0</v>
       </c>
       <c r="K178" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="L178" t="n">
-        <v>13.29389762878418</v>
+        <v>-7.048802375793457</v>
       </c>
       <c r="M178" t="n">
-        <v>-13.19249153137207</v>
+        <v>-36.2669563293457</v>
       </c>
       <c r="N178" t="n">
-        <v>0.001459674793295562</v>
+        <v>0.001330852508544922</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>intermitente derecha</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -9376,7 +9376,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F179" t="n">
-        <v>0.01850748807191849</v>
+        <v>0.03049049712717533</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -9393,27 +9393,27 @@
         <v>0</v>
       </c>
       <c r="K179" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="L179" t="n">
-        <v>-7.048802375793457</v>
+        <v>-7.398098468780518</v>
       </c>
       <c r="M179" t="n">
-        <v>-36.2669563293457</v>
+        <v>-32.91838455200195</v>
       </c>
       <c r="N179" t="n">
-        <v>0.001330852508544922</v>
+        <v>0.00151483528316021</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>intermitente derecha</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -9426,14 +9426,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F180" t="n">
-        <v>0.03049049712717533</v>
+        <v>0.4330384433269501</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I180" t="b">
@@ -9443,31 +9443,31 @@
         <v>0</v>
       </c>
       <c r="K180" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="L180" t="n">
-        <v>-7.398098468780518</v>
+        <v>-12.30206108093262</v>
       </c>
       <c r="M180" t="n">
-        <v>-32.91838455200195</v>
+        <v>-18.99560928344727</v>
       </c>
       <c r="N180" t="n">
-        <v>0.00151483528316021</v>
+        <v>0.00144617073237896</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>salgo rotonda</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>RND-EXIT</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -9476,14 +9476,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F181" t="n">
-        <v>0.4330384433269501</v>
+        <v>-0.2538861930370331</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Right_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I181" t="b">
@@ -9493,27 +9493,27 @@
         <v>0</v>
       </c>
       <c r="K181" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="L181" t="n">
-        <v>-12.30206108093262</v>
+        <v>-7.374916076660156</v>
       </c>
       <c r="M181" t="n">
-        <v>-18.99560928344727</v>
+        <v>-36.52316665649414</v>
       </c>
       <c r="N181" t="n">
-        <v>0.00144617073237896</v>
+        <v>0.001726665417663753</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>intermitente izquierda</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>LB-ON</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -9526,7 +9526,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F182" t="n">
-        <v>-0.2538861930370331</v>
+        <v>-0.3561001420021057</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -9543,27 +9543,27 @@
         <v>0</v>
       </c>
       <c r="K182" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L182" t="n">
-        <v>-7.374916076660156</v>
+        <v>-8.384727478027344</v>
       </c>
       <c r="M182" t="n">
-        <v>-36.52316665649414</v>
+        <v>-32.15097427368164</v>
       </c>
       <c r="N182" t="n">
-        <v>0.001726665417663753</v>
+        <v>0.00132352823857218</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>intermitente izquierda</t>
+          <t>giro izquierda</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>LB-ON</t>
+          <t>TURN-L</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -9576,14 +9576,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F183" t="n">
-        <v>-0.3561001420021057</v>
+        <v>0.5610677003860474</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Left_Blinker</t>
         </is>
       </c>
       <c r="I183" t="b">
@@ -9593,27 +9593,27 @@
         <v>0</v>
       </c>
       <c r="K183" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="L183" t="n">
-        <v>-8.384727478027344</v>
+        <v>-11.87734222412109</v>
       </c>
       <c r="M183" t="n">
-        <v>-32.15097427368164</v>
+        <v>-20.21049308776855</v>
       </c>
       <c r="N183" t="n">
-        <v>0.00132352823857218</v>
+        <v>0.001590900355949998</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>giro izquierda</t>
+          <t>mantengo acelerador</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>T-HOLD</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -9626,7 +9626,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F184" t="n">
-        <v>0.5610677003860474</v>
+        <v>0.6651404500007629</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -9643,16 +9643,16 @@
         <v>0</v>
       </c>
       <c r="K184" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L184" t="n">
-        <v>-11.87734222412109</v>
+        <v>-14.07845783233643</v>
       </c>
       <c r="M184" t="n">
-        <v>-20.21049308776855</v>
+        <v>-15.97092342376709</v>
       </c>
       <c r="N184" t="n">
-        <v>0.001590900355949998</v>
+        <v>0.00171094888355583</v>
       </c>
     </row>
     <row r="185">
@@ -9676,7 +9676,7 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F185" t="n">
-        <v>0.6651404500007629</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
@@ -9693,27 +9693,27 @@
         <v>0</v>
       </c>
       <c r="K185" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="L185" t="n">
-        <v>-14.07845783233643</v>
+        <v>-19.60117721557617</v>
       </c>
       <c r="M185" t="n">
-        <v>-15.97092342376709</v>
+        <v>3.188936710357666</v>
       </c>
       <c r="N185" t="n">
-        <v>0.00171094888355583</v>
+        <v>0.002044391585513949</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>mantengo acelerador</t>
+          <t>quito intermitente</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>T-HOLD</t>
+          <t>BLK-OFF</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -9726,14 +9726,14 @@
         <v>0.8500000238418579</v>
       </c>
       <c r="F186" t="n">
-        <v>0.800000011920929</v>
+        <v>-0.1056757122278214</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Left_Blinker</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I186" t="b">
@@ -9743,27 +9743,27 @@
         <v>0</v>
       </c>
       <c r="K186" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L186" t="n">
-        <v>-19.60117721557617</v>
+        <v>18.01658058166504</v>
       </c>
       <c r="M186" t="n">
-        <v>3.188936710357666</v>
+        <v>7.276134490966797</v>
       </c>
       <c r="N186" t="n">
-        <v>0.002044391585513949</v>
+        <v>0.001942119561135769</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>quito intermitente</t>
+          <t>intermitente derecha</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>BLK-OFF</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -9773,10 +9773,10 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.2134239226579666</v>
       </c>
       <c r="F187" t="n">
-        <v>-0.1056757122278214</v>
+        <v>-0.1348220705986023</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -9793,27 +9793,27 @@
         <v>0</v>
       </c>
       <c r="K187" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L187" t="n">
-        <v>18.01658058166504</v>
+        <v>18.98239135742188</v>
       </c>
       <c r="M187" t="n">
-        <v>7.276134490966797</v>
+        <v>2.447467803955078</v>
       </c>
       <c r="N187" t="n">
-        <v>0.001942119561135769</v>
+        <v>0.002055377932265401</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>intermitente derecha</t>
+          <t>giro derecha</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>TURN-R</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -9823,17 +9823,17 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>0.2134239226579666</v>
+        <v>0.1484721601009369</v>
       </c>
       <c r="F188" t="n">
-        <v>-0.1348220705986023</v>
+        <v>-0.1117135137319565</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Right_Blinker</t>
         </is>
       </c>
       <c r="I188" t="b">
@@ -9843,27 +9843,27 @@
         <v>0</v>
       </c>
       <c r="K188" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L188" t="n">
-        <v>18.98239135742188</v>
+        <v>16.76653480529785</v>
       </c>
       <c r="M188" t="n">
-        <v>2.447467803955078</v>
+        <v>-8.148841857910156</v>
       </c>
       <c r="N188" t="n">
-        <v>0.002055377932265401</v>
+        <v>0.002056255238130689</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>giro derecha</t>
+          <t>salgo rotonda</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TURN-R</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -9873,10 +9873,10 @@
         <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>0.1484721601009369</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.1117135137319565</v>
+        <v>-0.2330744862556458</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
@@ -9893,65 +9893,15 @@
         <v>0</v>
       </c>
       <c r="K189" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L189" t="n">
-        <v>16.76653480529785</v>
+        <v>14.72302722930908</v>
       </c>
       <c r="M189" t="n">
-        <v>-8.148841857910156</v>
+        <v>-11.73766231536865</v>
       </c>
       <c r="N189" t="n">
-        <v>0.002056255238130689</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>salgo rotonda</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>RND-EXIT</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
-        <v>4</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0.8500000238418579</v>
-      </c>
-      <c r="F190" t="n">
-        <v>-0.2330744862556458</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0</v>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>Right_Blinker</t>
-        </is>
-      </c>
-      <c r="I190" t="b">
-        <v>0</v>
-      </c>
-      <c r="J190" t="b">
-        <v>0</v>
-      </c>
-      <c r="K190" t="n">
-        <v>35</v>
-      </c>
-      <c r="L190" t="n">
-        <v>14.72302722930908</v>
-      </c>
-      <c r="M190" t="n">
-        <v>-11.73766231536865</v>
-      </c>
-      <c r="N190" t="n">
         <v>0.001780528924427927</v>
       </c>
     </row>
